--- a/data/final_sheet.xlsx
+++ b/data/final_sheet.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS53"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,187 +400,207 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>info_employment_1996</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>employment_1996</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gdp_1996</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>population_1996</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gdp_per_capita_1996</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>population_1996</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>venture_capital_2001</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>patents_2001</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>firm_deaths_2001</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>bach_degrees_2001</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>net_jobs_2001</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>edu_investment_2001</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>info_net_jobs_2001</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>info_employment_2001</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>employment_2001</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>gdp_2001</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>population_2001</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>gdp_per_capita_2001</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>population_2001</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>venture_capital_2010</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>patents_2010</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>firm_deaths_2010</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>bach_degrees_2010</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>net_jobs_2010</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>edu_investment_2010</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>info_net_jobs_2010</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>info_employment_2010</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>employment_2010</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>gdp_2010</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>population_2010</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>gdp_per_capita_2010</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>population_2010</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>venture_capital_2015</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>patents_2015</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>firm_deaths_2015</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>bach_degrees_2015</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>net_jobs_2015</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>edu_investment_2015</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>info_net_jobs_2015</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>info_employment_2015</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>employment_2015</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>gdp_2015</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>population_2015</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gdp_per_capita_2015</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>population_2015</t>
         </is>
       </c>
     </row>
@@ -612,115 +632,127 @@
         <v>-179</v>
       </c>
       <c r="I2">
+        <v>33237</v>
+      </c>
+      <c r="J2">
         <v>1526554</v>
       </c>
-      <c r="J2">
-        <v>99190</v>
-      </c>
       <c r="K2">
-        <v>23119.04033257482</v>
+        <v>99190000000</v>
       </c>
       <c r="L2">
-        <v>4290403</v>
+        <v>4331102</v>
       </c>
       <c r="M2">
+        <v>22901.79266154434</v>
+      </c>
+      <c r="N2">
         <v>68597000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>382</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6415</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>20823</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-42107</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1091222622</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>-2587</v>
       </c>
-      <c r="T2">
+      <c r="U2">
+        <v>36125</v>
+      </c>
+      <c r="V2">
         <v>1608688</v>
       </c>
-      <c r="U2">
-        <v>123534.5</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
+        <v>123534500000</v>
+      </c>
+      <c r="X2">
+        <v>4467634</v>
+      </c>
+      <c r="Y2">
         <v>27650.98931559747</v>
       </c>
-      <c r="W2">
-        <v>4467634</v>
-      </c>
-      <c r="X2">
+      <c r="Z2">
         <v>600000</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>444</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>6039</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>25686</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>-37037</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>1544765998</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>-1816</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
+        <v>36217</v>
+      </c>
+      <c r="AH2">
         <v>1570832</v>
       </c>
-      <c r="AF2">
-        <v>177510.7</v>
-      </c>
-      <c r="AG2">
-        <v>37095.01477232975</v>
-      </c>
-      <c r="AH2">
-        <v>4785298</v>
-      </c>
       <c r="AI2">
+        <v>177510700000</v>
+      </c>
+      <c r="AJ2">
+        <v>4788095</v>
+      </c>
+      <c r="AK2">
+        <v>37073.34545367207</v>
+      </c>
+      <c r="AL2">
         <v>39100000</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>473</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>4619</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <v>30060</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <v>36384</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <v>1470992356</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <v>228</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
+        <v>33459</v>
+      </c>
+      <c r="AT2">
         <v>1637669</v>
       </c>
-      <c r="AQ2">
-        <v>203113.3</v>
-      </c>
-      <c r="AR2">
+      <c r="AU2">
+        <v>203113300000</v>
+      </c>
+      <c r="AV2">
+        <v>4909177</v>
+      </c>
+      <c r="AW2">
         <v>41374.20590050022</v>
-      </c>
-      <c r="AS2">
-        <v>4909177</v>
       </c>
     </row>
     <row r="3">
@@ -729,9 +761,6 @@
           <t>Alaska</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>36</v>
       </c>
@@ -751,115 +780,118 @@
         <v>-57</v>
       </c>
       <c r="I3">
+        <v>4672</v>
+      </c>
+      <c r="J3">
         <v>177550</v>
       </c>
-      <c r="J3">
-        <v>24161</v>
-      </c>
       <c r="K3">
-        <v>39940.95067430627</v>
+        <v>24161000000</v>
       </c>
       <c r="L3">
-        <v>604918</v>
+        <v>608569</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+        <v>39701.33214146629</v>
+      </c>
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1020</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1338</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3329</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>192808631</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>317</v>
       </c>
-      <c r="T3">
+      <c r="U3">
+        <v>6629</v>
+      </c>
+      <c r="V3">
         <v>210542</v>
       </c>
-      <c r="U3">
-        <v>28660.9</v>
-      </c>
-      <c r="V3">
+      <c r="W3">
+        <v>28660900000</v>
+      </c>
+      <c r="X3">
+        <v>633714</v>
+      </c>
+      <c r="Y3">
         <v>45226.86890300672</v>
       </c>
-      <c r="W3">
-        <v>633714</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>28</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>952</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>1619</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>1783</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>337678278</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>-442</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
+        <v>6627</v>
+      </c>
+      <c r="AH3">
         <v>253725</v>
       </c>
-      <c r="AF3">
-        <v>53654</v>
-      </c>
-      <c r="AG3">
-        <v>75147.23698677143</v>
-      </c>
-      <c r="AH3">
-        <v>713985</v>
-      </c>
       <c r="AI3">
-        <v>0</v>
+        <v>53654000000</v>
       </c>
       <c r="AJ3">
+        <v>714015</v>
+      </c>
+      <c r="AK3">
+        <v>75144.07960617074</v>
+      </c>
+      <c r="AM3">
         <v>40</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>940</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>1932</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>2154</v>
       </c>
-      <c r="AN3">
+      <c r="AQ3">
         <v>401419936</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>-89</v>
       </c>
-      <c r="AP3">
+      <c r="AS3">
+        <v>7050</v>
+      </c>
+      <c r="AT3">
         <v>266906</v>
       </c>
-      <c r="AQ3">
-        <v>51574.2</v>
-      </c>
-      <c r="AR3">
+      <c r="AU3">
+        <v>51574200000</v>
+      </c>
+      <c r="AV3">
+        <v>739120</v>
+      </c>
+      <c r="AW3">
         <v>69777.84392250243</v>
-      </c>
-      <c r="AS3">
-        <v>739120</v>
       </c>
     </row>
     <row r="4">
@@ -868,9 +900,6 @@
           <t>Arizona</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>1062</v>
       </c>
@@ -890,115 +919,127 @@
         <v>5095</v>
       </c>
       <c r="I4">
+        <v>40235</v>
+      </c>
+      <c r="J4">
         <v>1569007</v>
       </c>
-      <c r="J4">
-        <v>111520</v>
-      </c>
       <c r="K4">
-        <v>25160.70634080483</v>
+        <v>111520000000</v>
       </c>
       <c r="L4">
-        <v>4432308</v>
+        <v>4586940</v>
       </c>
       <c r="M4">
+        <v>24312.50463271811</v>
+      </c>
+      <c r="N4">
         <v>10400000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1540</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7428</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>20856</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>18872</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1208620300</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1842</v>
       </c>
-      <c r="T4">
+      <c r="U4">
+        <v>59085</v>
+      </c>
+      <c r="V4">
         <v>1939795</v>
       </c>
-      <c r="U4">
-        <v>172899.6</v>
-      </c>
-      <c r="V4">
+      <c r="W4">
+        <v>172899600000</v>
+      </c>
+      <c r="X4">
+        <v>5273477</v>
+      </c>
+      <c r="Y4">
         <v>32786.64152702288</v>
       </c>
-      <c r="W4">
-        <v>5273477</v>
-      </c>
-      <c r="X4">
+      <c r="Z4">
         <v>5000100</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>1976</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>10023</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>44339</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>-64834</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>1919029516</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>11</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
+        <v>51868</v>
+      </c>
+      <c r="AH4">
         <v>2062051</v>
       </c>
-      <c r="AF4">
-        <v>250527</v>
-      </c>
-      <c r="AG4">
-        <v>39061.00296909586</v>
-      </c>
-      <c r="AH4">
-        <v>6413737</v>
-      </c>
       <c r="AI4">
+        <v>250527000000</v>
+      </c>
+      <c r="AJ4">
+        <v>6401304</v>
+      </c>
+      <c r="AK4">
+        <v>39136.86961281639</v>
+      </c>
+      <c r="AL4">
         <v>113512000</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>2540</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>7102</v>
       </c>
-      <c r="AL4">
+      <c r="AO4">
         <v>58534</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <v>69973</v>
       </c>
-      <c r="AN4">
+      <c r="AQ4">
         <v>1762835970</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>3562</v>
       </c>
-      <c r="AP4">
+      <c r="AS4">
+        <v>50744</v>
+      </c>
+      <c r="AT4">
         <v>2316570</v>
       </c>
-      <c r="AQ4">
-        <v>298942.2</v>
-      </c>
-      <c r="AR4">
+      <c r="AU4">
+        <v>298942200000</v>
+      </c>
+      <c r="AV4">
+        <v>6705607</v>
+      </c>
+      <c r="AW4">
         <v>44580.93055557834</v>
-      </c>
-      <c r="AS4">
-        <v>6705607</v>
       </c>
     </row>
     <row r="5">
@@ -1029,115 +1070,127 @@
         <v>441</v>
       </c>
       <c r="I5">
+        <v>20389</v>
+      </c>
+      <c r="J5">
         <v>888990</v>
       </c>
-      <c r="J5">
-        <v>56417</v>
-      </c>
       <c r="K5">
-        <v>22523.03324180453</v>
+        <v>56417000000</v>
       </c>
       <c r="L5">
-        <v>2504858</v>
+        <v>2572109</v>
       </c>
       <c r="M5">
+        <v>21934.14042717474</v>
+      </c>
+      <c r="N5">
         <v>187806300</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>180</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4310</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>9628</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-5579</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>622307560</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1523</v>
       </c>
-      <c r="T5">
+      <c r="U5">
+        <v>24360</v>
+      </c>
+      <c r="V5">
         <v>980391</v>
       </c>
-      <c r="U5">
-        <v>71099.60000000001</v>
-      </c>
-      <c r="V5">
+      <c r="W5">
+        <v>71099600000</v>
+      </c>
+      <c r="X5">
+        <v>2691571</v>
+      </c>
+      <c r="Y5">
         <v>26415.65093397128</v>
       </c>
-      <c r="W5">
-        <v>2691571</v>
-      </c>
-      <c r="X5">
+      <c r="Z5">
         <v>83000100</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>144</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>3679</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>12523</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>-7794</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>982390275</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>-498</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
+        <v>22767</v>
+      </c>
+      <c r="AH5">
         <v>961050</v>
       </c>
-      <c r="AF5">
-        <v>101699.3</v>
-      </c>
-      <c r="AG5">
-        <v>34809.38223702991</v>
-      </c>
-      <c r="AH5">
-        <v>2921606</v>
-      </c>
       <c r="AI5">
+        <v>101699300000</v>
+      </c>
+      <c r="AJ5">
+        <v>2921546</v>
+      </c>
+      <c r="AK5">
+        <v>34810.09711981259</v>
+      </c>
+      <c r="AL5">
         <v>10375000</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>233</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>3096</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>15881</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>12298</v>
       </c>
-      <c r="AN5">
+      <c r="AQ5">
         <v>1024083327</v>
       </c>
-      <c r="AO5">
+      <c r="AR5">
         <v>373</v>
       </c>
-      <c r="AP5">
+      <c r="AS5">
+        <v>23235</v>
+      </c>
+      <c r="AT5">
         <v>996418</v>
       </c>
-      <c r="AQ5">
-        <v>118573.6</v>
-      </c>
-      <c r="AR5">
+      <c r="AU5">
+        <v>118573600000</v>
+      </c>
+      <c r="AV5">
+        <v>2970210</v>
+      </c>
+      <c r="AW5">
         <v>39920.94835045333</v>
-      </c>
-      <c r="AS5">
-        <v>2970210</v>
       </c>
     </row>
     <row r="6">
@@ -1168,115 +1221,127 @@
         <v>3200</v>
       </c>
       <c r="I6">
+        <v>405370</v>
+      </c>
+      <c r="J6">
         <v>10848852</v>
       </c>
-      <c r="J6">
-        <v>962696</v>
-      </c>
       <c r="K6">
-        <v>30291.72083585359</v>
+        <v>962696000000</v>
       </c>
       <c r="L6">
-        <v>31780829</v>
+        <v>32018834</v>
       </c>
       <c r="M6">
+        <v>30066.55395383855</v>
+      </c>
+      <c r="N6">
         <v>15455453900</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>18598</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>49209</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>123382</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>234728</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>10599433550</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>35002</v>
       </c>
-      <c r="T6">
+      <c r="U6">
+        <v>556074</v>
+      </c>
+      <c r="V6">
         <v>12925092</v>
       </c>
-      <c r="U6">
-        <v>1373270.8</v>
-      </c>
-      <c r="V6">
+      <c r="W6">
+        <v>1373270800000</v>
+      </c>
+      <c r="X6">
+        <v>34479458</v>
+      </c>
+      <c r="Y6">
         <v>39828.66552020626</v>
       </c>
-      <c r="W6">
-        <v>34479458</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>10978429500</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>27336</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>56559</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>164234</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>-387935</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>12961691250</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>-23931</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
+        <v>487172</v>
+      </c>
+      <c r="AH6">
         <v>12338293</v>
       </c>
-      <c r="AF6">
-        <v>1938603.3</v>
-      </c>
-      <c r="AG6">
-        <v>51904.58803808782</v>
-      </c>
-      <c r="AH6">
-        <v>37349363</v>
-      </c>
       <c r="AI6">
+        <v>1938603300000</v>
+      </c>
+      <c r="AJ6">
+        <v>37322523</v>
+      </c>
+      <c r="AK6">
+        <v>51941.9145377712</v>
+      </c>
+      <c r="AL6">
         <v>33666771300</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>40196</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>49126</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>201116</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <v>466064</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>14638115966</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>32218</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
+        <v>642836</v>
+      </c>
+      <c r="AT6">
         <v>14073994</v>
       </c>
-      <c r="AQ6">
-        <v>2487156.4</v>
-      </c>
-      <c r="AR6">
+      <c r="AU6">
+        <v>2487156400000</v>
+      </c>
+      <c r="AV6">
+        <v>38966939</v>
+      </c>
+      <c r="AW6">
         <v>63827.34861468077</v>
-      </c>
-      <c r="AS6">
-        <v>38966939</v>
       </c>
     </row>
     <row r="7">
@@ -1307,115 +1372,127 @@
         <v>5578</v>
       </c>
       <c r="I7">
+        <v>69007</v>
+      </c>
+      <c r="J7">
         <v>1577005</v>
       </c>
-      <c r="J7">
-        <v>116227</v>
-      </c>
       <c r="K7">
-        <v>30484.04339583646</v>
+        <v>116227000000</v>
       </c>
       <c r="L7">
-        <v>3812716</v>
+        <v>3919972</v>
       </c>
       <c r="M7">
+        <v>29649.95668336406</v>
+      </c>
+      <c r="N7">
         <v>1125972200</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1927</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8824</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>21410</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>28060</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>757040496</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14151</v>
       </c>
-      <c r="T7">
+      <c r="U7">
+        <v>119642</v>
+      </c>
+      <c r="V7">
         <v>1953572</v>
       </c>
-      <c r="U7">
-        <v>185848.9</v>
-      </c>
-      <c r="V7">
+      <c r="W7">
+        <v>185848900000</v>
+      </c>
+      <c r="X7">
+        <v>4425687</v>
+      </c>
+      <c r="Y7">
         <v>41993.2317852573</v>
       </c>
-      <c r="W7">
-        <v>4425687</v>
-      </c>
-      <c r="X7">
+      <c r="Z7">
         <v>467548700</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>2135</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>10337</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>28546</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>-43340</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>901603126</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>-4537</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
+        <v>78683</v>
+      </c>
+      <c r="AH7">
         <v>1913306</v>
       </c>
-      <c r="AF7">
-        <v>256771.8</v>
-      </c>
-      <c r="AG7">
-        <v>50855.2563431966</v>
-      </c>
-      <c r="AH7">
-        <v>5049071</v>
-      </c>
       <c r="AI7">
+        <v>256771800000</v>
+      </c>
+      <c r="AJ7">
+        <v>5046928</v>
+      </c>
+      <c r="AK7">
+        <v>50876.85023443964</v>
+      </c>
+      <c r="AL7">
         <v>782622600</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>3045</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>8677</v>
       </c>
-      <c r="AL7">
+      <c r="AO7">
         <v>33626</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <v>87799</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>849527081</v>
       </c>
-      <c r="AO7">
+      <c r="AR7">
         <v>-2434</v>
       </c>
-      <c r="AP7">
+      <c r="AS7">
+        <v>81722</v>
+      </c>
+      <c r="AT7">
         <v>2195950</v>
       </c>
-      <c r="AQ7">
-        <v>320895.9</v>
-      </c>
-      <c r="AR7">
+      <c r="AU7">
+        <v>320895900000</v>
+      </c>
+      <c r="AV7">
+        <v>5441452</v>
+      </c>
+      <c r="AW7">
         <v>58972.47646400263</v>
-      </c>
-      <c r="AS7">
-        <v>5441452</v>
       </c>
     </row>
     <row r="8">
@@ -1446,115 +1523,127 @@
         <v>2783</v>
       </c>
       <c r="I8">
+        <v>43923</v>
+      </c>
+      <c r="J8">
         <v>1395740</v>
       </c>
-      <c r="J8">
-        <v>124046</v>
-      </c>
       <c r="K8">
-        <v>37969.04221877363</v>
+        <v>124046000000</v>
       </c>
       <c r="L8">
-        <v>3267030</v>
+        <v>3336685</v>
       </c>
       <c r="M8">
+        <v>37176.41911058431</v>
+      </c>
+      <c r="N8">
         <v>519944700</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1853</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4723</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>14080</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1597</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>859639833</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>429</v>
       </c>
-      <c r="T8">
+      <c r="U8">
+        <v>50728</v>
+      </c>
+      <c r="V8">
         <v>1543660</v>
       </c>
-      <c r="U8">
-        <v>171124.4</v>
-      </c>
-      <c r="V8">
+      <c r="W8">
+        <v>171124400000</v>
+      </c>
+      <c r="X8">
+        <v>3432835</v>
+      </c>
+      <c r="Y8">
         <v>49849.2936596137</v>
       </c>
-      <c r="W8">
-        <v>3432835</v>
-      </c>
-      <c r="X8">
+      <c r="Z8">
         <v>200121400</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>1875</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>4759</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>19483</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>-29122</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>1342873713</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>-1640</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
+        <v>35389</v>
+      </c>
+      <c r="AH8">
         <v>1426650</v>
       </c>
-      <c r="AF8">
-        <v>234022.2</v>
-      </c>
-      <c r="AG8">
-        <v>65422.81915968726</v>
-      </c>
-      <c r="AH8">
-        <v>3577073</v>
-      </c>
       <c r="AI8">
+        <v>234022200000</v>
+      </c>
+      <c r="AJ8">
+        <v>3580281</v>
+      </c>
+      <c r="AK8">
+        <v>65364.19906705647</v>
+      </c>
+      <c r="AL8">
         <v>446667100</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>2158</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <v>4163</v>
       </c>
-      <c r="AL8">
+      <c r="AO8">
         <v>22344</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <v>19916</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <v>1215885258</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <v>955</v>
       </c>
-      <c r="AP8">
+      <c r="AS8">
+        <v>41891</v>
+      </c>
+      <c r="AT8">
         <v>1500968</v>
       </c>
-      <c r="AQ8">
-        <v>260648.5</v>
-      </c>
-      <c r="AR8">
+      <c r="AU8">
+        <v>260648500000</v>
+      </c>
+      <c r="AV8">
+        <v>3611891</v>
+      </c>
+      <c r="AW8">
         <v>72163.99941194239</v>
-      </c>
-      <c r="AS8">
-        <v>3611891</v>
       </c>
     </row>
     <row r="9">
@@ -1585,115 +1674,127 @@
         <v>-28</v>
       </c>
       <c r="I9">
+        <v>5561</v>
+      </c>
+      <c r="J9">
         <v>331665</v>
       </c>
-      <c r="J9">
-        <v>28331</v>
-      </c>
       <c r="K9">
-        <v>38964.91493487739</v>
+        <v>28331000000</v>
       </c>
       <c r="L9">
-        <v>727090</v>
+        <v>740977</v>
       </c>
       <c r="M9">
+        <v>38234.65505676965</v>
+      </c>
+      <c r="N9">
         <v>14630000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>382</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1283</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4504</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6336</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>184700000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>253</v>
       </c>
-      <c r="T9">
+      <c r="U9">
+        <v>8510</v>
+      </c>
+      <c r="V9">
         <v>384697</v>
       </c>
-      <c r="U9">
-        <v>46373.8</v>
-      </c>
-      <c r="V9">
+      <c r="W9">
+        <v>46373800000</v>
+      </c>
+      <c r="X9">
+        <v>795699</v>
+      </c>
+      <c r="Y9">
         <v>58280.58097345856</v>
       </c>
-      <c r="W9">
-        <v>795699</v>
-      </c>
-      <c r="X9">
+      <c r="Z9">
         <v>31039000</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>367</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>1351</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>5505</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>-9908</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>242518560</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>-459</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
+        <v>6641</v>
+      </c>
+      <c r="AH9">
         <v>358716</v>
       </c>
-      <c r="AF9">
-        <v>58132.2</v>
-      </c>
-      <c r="AG9">
-        <v>64607.91603178149</v>
-      </c>
-      <c r="AH9">
-        <v>899769</v>
-      </c>
       <c r="AI9">
+        <v>58132200000</v>
+      </c>
+      <c r="AJ9">
+        <v>899773</v>
+      </c>
+      <c r="AK9">
+        <v>64607.62881304507</v>
+      </c>
+      <c r="AL9">
         <v>98155000</v>
       </c>
-      <c r="AJ9">
+      <c r="AM9">
         <v>361</v>
       </c>
-      <c r="AK9">
+      <c r="AN9">
         <v>1153</v>
       </c>
-      <c r="AL9">
+      <c r="AO9">
         <v>6895</v>
       </c>
-      <c r="AM9">
+      <c r="AP9">
         <v>7285</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <v>226594100</v>
       </c>
-      <c r="AO9">
+      <c r="AR9">
         <v>496</v>
       </c>
-      <c r="AP9">
+      <c r="AS9">
+        <v>8024</v>
+      </c>
+      <c r="AT9">
         <v>393051</v>
       </c>
-      <c r="AQ9">
-        <v>72352.5</v>
-      </c>
-      <c r="AR9">
+      <c r="AU9">
+        <v>72352500000</v>
+      </c>
+      <c r="AV9">
+        <v>944716</v>
+      </c>
+      <c r="AW9">
         <v>76586.50853801565</v>
-      </c>
-      <c r="AS9">
-        <v>944716</v>
       </c>
     </row>
     <row r="10">
@@ -1721,109 +1822,121 @@
         <v>1461</v>
       </c>
       <c r="I10">
+        <v>20705</v>
+      </c>
+      <c r="J10">
         <v>364665</v>
       </c>
-      <c r="J10">
-        <v>51197</v>
-      </c>
       <c r="K10">
-        <v>95113.44615093085</v>
+        <v>51197000000</v>
       </c>
       <c r="L10">
-        <v>538273</v>
+        <v>572377</v>
       </c>
       <c r="M10">
+        <v>89446.29151765358</v>
+      </c>
+      <c r="N10">
         <v>161181300</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>67</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>913</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>8166</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4661</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-111</v>
       </c>
-      <c r="T10">
+      <c r="U10">
+        <v>23298</v>
+      </c>
+      <c r="V10">
         <v>400218</v>
       </c>
-      <c r="U10">
-        <v>65620</v>
-      </c>
-      <c r="V10">
+      <c r="W10">
+        <v>65620000000</v>
+      </c>
+      <c r="X10">
+        <v>574504</v>
+      </c>
+      <c r="Y10">
         <v>114220.2665255594</v>
       </c>
-      <c r="W10">
-        <v>574504</v>
-      </c>
-      <c r="X10">
+      <c r="Z10">
         <v>70554900</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>82</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>971</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>8927</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>421</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>-988</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
+        <v>20382</v>
+      </c>
+      <c r="AH10">
         <v>460731</v>
       </c>
-      <c r="AF10">
-        <v>106128.6</v>
-      </c>
-      <c r="AG10">
-        <v>175577.9192095994</v>
-      </c>
-      <c r="AH10">
-        <v>604453</v>
-      </c>
       <c r="AI10">
+        <v>106128600000</v>
+      </c>
+      <c r="AJ10">
+        <v>604718</v>
+      </c>
+      <c r="AK10">
+        <v>175500.977315046</v>
+      </c>
+      <c r="AL10">
         <v>171977200</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>146</v>
       </c>
-      <c r="AK10">
+      <c r="AN10">
         <v>984</v>
       </c>
-      <c r="AL10">
+      <c r="AO10">
         <v>9272</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
         <v>15181</v>
       </c>
-      <c r="AN10">
+      <c r="AQ10">
         <v>79709265</v>
       </c>
-      <c r="AO10">
+      <c r="AR10">
         <v>1942</v>
       </c>
-      <c r="AP10">
+      <c r="AS10">
+        <v>25035</v>
+      </c>
+      <c r="AT10">
         <v>505596</v>
       </c>
-      <c r="AQ10">
-        <v>124753.6</v>
-      </c>
-      <c r="AR10">
+      <c r="AU10">
+        <v>124753600000</v>
+      </c>
+      <c r="AV10">
+        <v>665135</v>
+      </c>
+      <c r="AW10">
         <v>187561.3221376112</v>
-      </c>
-      <c r="AS10">
-        <v>665135</v>
       </c>
     </row>
     <row r="11">
@@ -1854,115 +1967,127 @@
         <v>1672</v>
       </c>
       <c r="I11">
+        <v>141490</v>
+      </c>
+      <c r="J11">
         <v>5310552</v>
       </c>
-      <c r="J11">
-        <v>360496</v>
-      </c>
       <c r="K11">
-        <v>25303.44998996625</v>
+        <v>360496000000</v>
       </c>
       <c r="L11">
-        <v>14246911</v>
+        <v>14853360</v>
       </c>
       <c r="M11">
+        <v>24270.33344643905</v>
+      </c>
+      <c r="N11">
         <v>723153200</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2649</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>29526</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>52557</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>191452</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3124964661</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>10683</v>
       </c>
-      <c r="T11">
+      <c r="U11">
+        <v>187020</v>
+      </c>
+      <c r="V11">
         <v>6393830</v>
       </c>
-      <c r="U11">
-        <v>519140.7</v>
-      </c>
-      <c r="V11">
+      <c r="W11">
+        <v>519140700000</v>
+      </c>
+      <c r="X11">
+        <v>16356966</v>
+      </c>
+      <c r="Y11">
         <v>31738.20254929918</v>
       </c>
-      <c r="W11">
-        <v>16356966</v>
-      </c>
-      <c r="X11">
+      <c r="Z11">
         <v>185662900</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>2977</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>37242</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>83471</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>-108437</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>3959583537</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>-4677</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
+        <v>152768</v>
+      </c>
+      <c r="AH11">
         <v>6515011</v>
       </c>
-      <c r="AF11">
-        <v>752998.4</v>
-      </c>
-      <c r="AG11">
-        <v>39961.01325211908</v>
-      </c>
-      <c r="AH11">
-        <v>18843326</v>
-      </c>
       <c r="AI11">
+        <v>752998400000</v>
+      </c>
+      <c r="AJ11">
+        <v>18842405</v>
+      </c>
+      <c r="AK11">
+        <v>39962.96651090984</v>
+      </c>
+      <c r="AL11">
         <v>460769200</v>
       </c>
-      <c r="AJ11">
+      <c r="AM11">
         <v>4054</v>
       </c>
-      <c r="AK11">
+      <c r="AN11">
         <v>31527</v>
       </c>
-      <c r="AL11">
+      <c r="AO11">
         <v>100521</v>
       </c>
-      <c r="AM11">
+      <c r="AP11">
         <v>327464</v>
       </c>
-      <c r="AN11">
+      <c r="AQ11">
         <v>4249846299</v>
       </c>
-      <c r="AO11">
+      <c r="AR11">
         <v>-296</v>
       </c>
-      <c r="AP11">
+      <c r="AS11">
+        <v>169503</v>
+      </c>
+      <c r="AT11">
         <v>7703266</v>
       </c>
-      <c r="AQ11">
-        <v>918464.3</v>
-      </c>
-      <c r="AR11">
+      <c r="AU11">
+        <v>918464300000</v>
+      </c>
+      <c r="AV11">
+        <v>20140379</v>
+      </c>
+      <c r="AW11">
         <v>45603.12891827904</v>
-      </c>
-      <c r="AS11">
-        <v>20140379</v>
       </c>
     </row>
     <row r="12">
@@ -1993,115 +2118,127 @@
         <v>3375</v>
       </c>
       <c r="I12">
+        <v>108047</v>
+      </c>
+      <c r="J12">
         <v>2959834</v>
       </c>
-      <c r="J12">
-        <v>216033</v>
-      </c>
       <c r="K12">
-        <v>29463.49846056279</v>
+        <v>216033000000</v>
       </c>
       <c r="L12">
-        <v>7332225</v>
+        <v>7501069</v>
       </c>
       <c r="M12">
+        <v>28800.29499795296</v>
+      </c>
+      <c r="N12">
         <v>794965600</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1370</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12504</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>28790</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-8910</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2299708414</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-2735</v>
       </c>
-      <c r="T12">
+      <c r="U12">
+        <v>146271</v>
+      </c>
+      <c r="V12">
         <v>3431038</v>
       </c>
-      <c r="U12">
-        <v>316872.7</v>
-      </c>
-      <c r="V12">
+      <c r="W12">
+        <v>316872700000</v>
+      </c>
+      <c r="X12">
+        <v>8377038</v>
+      </c>
+      <c r="Y12">
         <v>37826.34148251446</v>
       </c>
-      <c r="W12">
-        <v>8377038</v>
-      </c>
-      <c r="X12">
+      <c r="Z12">
         <v>333351000</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>1907</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>14903</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>42452</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>-84355</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>2979707008</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>-6948</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
+        <v>117700</v>
+      </c>
+      <c r="AH12">
         <v>3315724</v>
       </c>
-      <c r="AF12">
-        <v>419013.1</v>
-      </c>
-      <c r="AG12">
-        <v>43141.24547867628</v>
-      </c>
-      <c r="AH12">
-        <v>9712587</v>
-      </c>
       <c r="AI12">
+        <v>419013100000</v>
+      </c>
+      <c r="AJ12">
+        <v>9712616</v>
+      </c>
+      <c r="AK12">
+        <v>43141.11666722951</v>
+      </c>
+      <c r="AL12">
         <v>836077800</v>
       </c>
-      <c r="AJ12">
+      <c r="AM12">
         <v>2465</v>
       </c>
-      <c r="AK12">
+      <c r="AN12">
         <v>11466</v>
       </c>
-      <c r="AL12">
+      <c r="AO12">
         <v>49862</v>
       </c>
-      <c r="AM12">
+      <c r="AP12">
         <v>130543</v>
       </c>
-      <c r="AN12">
+      <c r="AQ12">
         <v>2898821290</v>
       </c>
-      <c r="AO12">
+      <c r="AR12">
         <v>2655</v>
       </c>
-      <c r="AP12">
+      <c r="AS12">
+        <v>122514</v>
+      </c>
+      <c r="AT12">
         <v>3653505</v>
       </c>
-      <c r="AQ12">
-        <v>525516.8</v>
-      </c>
-      <c r="AR12">
+      <c r="AU12">
+        <v>525516800000.0001</v>
+      </c>
+      <c r="AV12">
+        <v>10191912</v>
+      </c>
+      <c r="AW12">
         <v>51562.14064642631</v>
-      </c>
-      <c r="AS12">
-        <v>10191912</v>
       </c>
     </row>
     <row r="13">
@@ -2132,115 +2269,124 @@
         <v>588</v>
       </c>
       <c r="I13">
+        <v>9378</v>
+      </c>
+      <c r="J13">
         <v>414644</v>
       </c>
-      <c r="J13">
-        <v>36317</v>
-      </c>
       <c r="K13">
-        <v>30661.90264717156</v>
+        <v>36317000000</v>
       </c>
       <c r="L13">
-        <v>1184434</v>
+        <v>1203755</v>
       </c>
       <c r="M13">
+        <v>30169.76045790049</v>
+      </c>
+      <c r="N13">
         <v>37811000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>95</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1437</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4896</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6093</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>339025000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-352</v>
       </c>
-      <c r="T13">
+      <c r="U13">
+        <v>9027</v>
+      </c>
+      <c r="V13">
         <v>437682</v>
       </c>
-      <c r="U13">
-        <v>42500.2</v>
-      </c>
-      <c r="V13">
+      <c r="W13">
+        <v>42500200000</v>
+      </c>
+      <c r="X13">
+        <v>1225948</v>
+      </c>
+      <c r="Y13">
         <v>34667.21263870898</v>
       </c>
-      <c r="W13">
-        <v>1225948</v>
-      </c>
-      <c r="X13">
+      <c r="Z13">
         <v>11499900</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>121</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>1750</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>5401</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>-8810</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>567966074</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>-499</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
+        <v>8879</v>
+      </c>
+      <c r="AH13">
         <v>477668</v>
       </c>
-      <c r="AF13">
-        <v>66739.3</v>
-      </c>
-      <c r="AG13">
-        <v>48942.70475447357</v>
-      </c>
-      <c r="AH13">
-        <v>1363621</v>
-      </c>
       <c r="AI13">
-        <v>0</v>
+        <v>66739300000</v>
       </c>
       <c r="AJ13">
+        <v>1365117</v>
+      </c>
+      <c r="AK13">
+        <v>48889.06958158165</v>
+      </c>
+      <c r="AM13">
         <v>127</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>1488</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>6966</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>4010</v>
       </c>
-      <c r="AN13">
+      <c r="AQ13">
         <v>573459205</v>
       </c>
-      <c r="AO13">
+      <c r="AR13">
         <v>3</v>
       </c>
-      <c r="AP13">
+      <c r="AS13">
+        <v>8293</v>
+      </c>
+      <c r="AT13">
         <v>523315</v>
       </c>
-      <c r="AQ13">
-        <v>81410.2</v>
-      </c>
-      <c r="AR13">
+      <c r="AU13">
+        <v>81410200000</v>
+      </c>
+      <c r="AV13">
+        <v>1446452</v>
+      </c>
+      <c r="AW13">
         <v>56282.68342122656</v>
-      </c>
-      <c r="AS13">
-        <v>1446452</v>
       </c>
     </row>
     <row r="14">
@@ -2271,115 +2417,127 @@
         <v>-39</v>
       </c>
       <c r="I14">
+        <v>8777</v>
+      </c>
+      <c r="J14">
         <v>383479</v>
       </c>
-      <c r="J14">
-        <v>27898</v>
-      </c>
       <c r="K14">
-        <v>23488.97791204221</v>
+        <v>27898000000</v>
       </c>
       <c r="L14">
-        <v>1187706</v>
+        <v>1203083</v>
       </c>
       <c r="M14">
+        <v>23188.75755039345</v>
+      </c>
+      <c r="N14">
         <v>8390800</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1697</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2325</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4646</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8188</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>331879500</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>430</v>
       </c>
-      <c r="T14">
+      <c r="U14">
+        <v>12452</v>
+      </c>
+      <c r="V14">
         <v>463073</v>
       </c>
-      <c r="U14">
-        <v>37740.9</v>
-      </c>
-      <c r="V14">
+      <c r="W14">
+        <v>37740900000</v>
+      </c>
+      <c r="X14">
+        <v>1319962</v>
+      </c>
+      <c r="Y14">
         <v>28592.41402404008</v>
       </c>
-      <c r="W14">
-        <v>1319962</v>
-      </c>
-      <c r="X14">
+      <c r="Z14">
         <v>51500000</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>1095</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>3058</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>9466</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>-10550</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>391564100</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>-488</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
+        <v>13319</v>
+      </c>
+      <c r="AH14">
         <v>489118</v>
       </c>
-      <c r="AF14">
-        <v>56086.2</v>
-      </c>
-      <c r="AG14">
-        <v>35690.73149002514</v>
-      </c>
-      <c r="AH14">
-        <v>1571450</v>
-      </c>
       <c r="AI14">
+        <v>56086200000</v>
+      </c>
+      <c r="AJ14">
+        <v>1571339</v>
+      </c>
+      <c r="AK14">
+        <v>35693.25269722192</v>
+      </c>
+      <c r="AL14">
         <v>63000100</v>
       </c>
-      <c r="AJ14">
+      <c r="AM14">
         <v>865</v>
       </c>
-      <c r="AK14">
+      <c r="AN14">
         <v>2205</v>
       </c>
-      <c r="AL14">
+      <c r="AO14">
         <v>10886</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
         <v>17948</v>
       </c>
-      <c r="AN14">
+      <c r="AQ14">
         <v>427234890</v>
       </c>
-      <c r="AO14">
+      <c r="AR14">
         <v>73</v>
       </c>
-      <c r="AP14">
+      <c r="AS14">
+        <v>12262</v>
+      </c>
+      <c r="AT14">
         <v>549283</v>
       </c>
-      <c r="AQ14">
-        <v>66064.89999999999</v>
-      </c>
-      <c r="AR14">
+      <c r="AU14">
+        <v>66064899999.99999</v>
+      </c>
+      <c r="AV14">
+        <v>1663458</v>
+      </c>
+      <c r="AW14">
         <v>39715.40008824989</v>
-      </c>
-      <c r="AS14">
-        <v>1663458</v>
       </c>
     </row>
     <row r="15">
@@ -2410,115 +2568,127 @@
         <v>5458</v>
       </c>
       <c r="I15">
+        <v>125353</v>
+      </c>
+      <c r="J15">
         <v>4891900</v>
       </c>
-      <c r="J15">
-        <v>370778</v>
-      </c>
       <c r="K15">
-        <v>31019.65255091127</v>
+        <v>370778000000</v>
       </c>
       <c r="L15">
-        <v>11953003</v>
+        <v>12101997</v>
       </c>
       <c r="M15">
+        <v>30637.75342201787</v>
+      </c>
+      <c r="N15">
         <v>5775000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3640</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16700</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>55633</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-83854</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3265244197</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1300</v>
       </c>
-      <c r="T15">
+      <c r="U15">
+        <v>147684</v>
+      </c>
+      <c r="V15">
         <v>5360419</v>
       </c>
-      <c r="U15">
-        <v>499618.4</v>
-      </c>
-      <c r="V15">
+      <c r="W15">
+        <v>499618400000</v>
+      </c>
+      <c r="X15">
+        <v>12488445</v>
+      </c>
+      <c r="Y15">
         <v>40006.45396604621</v>
       </c>
-      <c r="W15">
-        <v>12488445</v>
-      </c>
-      <c r="X15">
+      <c r="Z15">
         <v>7750000</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>3611</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>17273</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>70847</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>-145750</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>4478152733</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>-4589</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
+        <v>122391</v>
+      </c>
+      <c r="AH15">
         <v>4942601</v>
       </c>
-      <c r="AF15">
-        <v>663929</v>
-      </c>
-      <c r="AG15">
-        <v>51695.11941214495</v>
-      </c>
-      <c r="AH15">
-        <v>12843166</v>
-      </c>
       <c r="AI15">
+        <v>663929000000</v>
+      </c>
+      <c r="AJ15">
+        <v>12845460</v>
+      </c>
+      <c r="AK15">
+        <v>51685.88746529903</v>
+      </c>
+      <c r="AL15">
         <v>1119035600</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>5028</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>15128</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>74317</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>105752</v>
       </c>
-      <c r="AN15">
+      <c r="AQ15">
         <v>5177040481</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>-4779</v>
       </c>
-      <c r="AP15">
+      <c r="AS15">
+        <v>120642</v>
+      </c>
+      <c r="AT15">
         <v>5359348</v>
       </c>
-      <c r="AQ15">
-        <v>802592</v>
-      </c>
-      <c r="AR15">
+      <c r="AU15">
+        <v>802592000000</v>
+      </c>
+      <c r="AV15">
+        <v>12963110</v>
+      </c>
+      <c r="AW15">
         <v>61913.53772358639</v>
-      </c>
-      <c r="AS15">
-        <v>12963110</v>
       </c>
     </row>
     <row r="16">
@@ -2549,115 +2719,127 @@
         <v>1311</v>
       </c>
       <c r="I16">
+        <v>47280</v>
+      </c>
+      <c r="J16">
         <v>2376667</v>
       </c>
-      <c r="J16">
-        <v>155797</v>
-      </c>
       <c r="K16">
-        <v>26700.84943927137</v>
+        <v>155797000000</v>
       </c>
       <c r="L16">
-        <v>5834908</v>
+        <v>5906013</v>
       </c>
       <c r="M16">
+        <v>26379.38656755412</v>
+      </c>
+      <c r="N16">
         <v>956684800</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1358</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7984</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>31881</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-69734</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1283197000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1226</v>
       </c>
-      <c r="T16">
+      <c r="U16">
+        <v>49394</v>
+      </c>
+      <c r="V16">
         <v>2585000</v>
       </c>
-      <c r="U16">
-        <v>205325.1</v>
-      </c>
-      <c r="V16">
+      <c r="W16">
+        <v>205325100000</v>
+      </c>
+      <c r="X16">
+        <v>6127760</v>
+      </c>
+      <c r="Y16">
         <v>33507.36647649386</v>
       </c>
-      <c r="W16">
-        <v>6127760</v>
-      </c>
-      <c r="X16">
+      <c r="Z16">
         <v>575407500</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>1492</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>7607</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>41687</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>-38835</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>1595424390</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>-513</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
+        <v>43401</v>
+      </c>
+      <c r="AH16">
         <v>2396086</v>
       </c>
-      <c r="AF16">
-        <v>284685.8</v>
-      </c>
-      <c r="AG16">
-        <v>43861.10358315483</v>
-      </c>
-      <c r="AH16">
-        <v>6490621</v>
-      </c>
       <c r="AI16">
+        <v>284685800000</v>
+      </c>
+      <c r="AJ16">
+        <v>6491385</v>
+      </c>
+      <c r="AK16">
+        <v>43855.9413746065</v>
+      </c>
+      <c r="AL16">
         <v>54942100</v>
       </c>
-      <c r="AJ16">
+      <c r="AM16">
         <v>2033</v>
       </c>
-      <c r="AK16">
+      <c r="AN16">
         <v>6228</v>
       </c>
-      <c r="AL16">
+      <c r="AO16">
         <v>48082</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
         <v>68575</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>1648510778</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>91</v>
       </c>
-      <c r="AP16">
+      <c r="AS16">
+        <v>43431</v>
+      </c>
+      <c r="AT16">
         <v>2670045</v>
       </c>
-      <c r="AQ16">
-        <v>333163.8</v>
-      </c>
-      <c r="AR16">
+      <c r="AU16">
+        <v>333163800000</v>
+      </c>
+      <c r="AV16">
+        <v>6628925</v>
+      </c>
+      <c r="AW16">
         <v>50259.09932605966</v>
-      </c>
-      <c r="AS16">
-        <v>6628925</v>
       </c>
     </row>
     <row r="17">
@@ -2688,115 +2870,127 @@
         <v>788</v>
       </c>
       <c r="I17">
+        <v>31656</v>
+      </c>
+      <c r="J17">
         <v>1139318</v>
       </c>
-      <c r="J17">
-        <v>76315</v>
-      </c>
       <c r="K17">
-        <v>26791.54761165017</v>
+        <v>76315000000</v>
       </c>
       <c r="L17">
-        <v>2848473</v>
+        <v>2880000</v>
       </c>
       <c r="M17">
+        <v>26498.26388888889</v>
+      </c>
+      <c r="N17">
         <v>38825800</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>751</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4264</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>18652</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-24379</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>885146268</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3026</v>
       </c>
-      <c r="T17">
+      <c r="U17">
+        <v>43768</v>
+      </c>
+      <c r="V17">
         <v>1244246</v>
       </c>
-      <c r="U17">
-        <v>94922.60000000001</v>
-      </c>
-      <c r="V17">
+      <c r="W17">
+        <v>94922600000</v>
+      </c>
+      <c r="X17">
+        <v>2931997</v>
+      </c>
+      <c r="Y17">
         <v>32374.72616786443</v>
       </c>
-      <c r="W17">
-        <v>2931997</v>
-      </c>
-      <c r="X17">
+      <c r="Z17">
         <v>68662100</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>763</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>3556</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>30323</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>-29540</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>917341005</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>-1157</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
+        <v>32985</v>
+      </c>
+      <c r="AH17">
         <v>1247012</v>
       </c>
-      <c r="AF17">
-        <v>142497.7</v>
-      </c>
-      <c r="AG17">
-        <v>46722.3496770204</v>
-      </c>
-      <c r="AH17">
-        <v>3049883</v>
-      </c>
       <c r="AI17">
+        <v>142497700000</v>
+      </c>
+      <c r="AJ17">
+        <v>3051473</v>
+      </c>
+      <c r="AK17">
+        <v>46698.00453748075</v>
+      </c>
+      <c r="AL17">
         <v>12276000</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>992</v>
       </c>
-      <c r="AK17">
+      <c r="AN17">
         <v>3238</v>
       </c>
-      <c r="AL17">
+      <c r="AO17">
         <v>28201</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
         <v>30711</v>
       </c>
-      <c r="AN17">
+      <c r="AQ17">
         <v>920577140</v>
       </c>
-      <c r="AO17">
+      <c r="AR17">
         <v>-610</v>
       </c>
-      <c r="AP17">
+      <c r="AS17">
+        <v>30622</v>
+      </c>
+      <c r="AT17">
         <v>1335813</v>
       </c>
-      <c r="AQ17">
-        <v>181471.7</v>
-      </c>
-      <c r="AR17">
+      <c r="AU17">
+        <v>181471700000</v>
+      </c>
+      <c r="AV17">
+        <v>3136310</v>
+      </c>
+      <c r="AW17">
         <v>57861.53154503222</v>
-      </c>
-      <c r="AS17">
-        <v>3136310</v>
       </c>
     </row>
     <row r="18">
@@ -2827,115 +3021,127 @@
         <v>1487</v>
       </c>
       <c r="I18">
+        <v>30855</v>
+      </c>
+      <c r="J18">
         <v>992580</v>
       </c>
-      <c r="J18">
-        <v>68014</v>
-      </c>
       <c r="K18">
-        <v>26176.68860694017</v>
+        <v>68014000000</v>
       </c>
       <c r="L18">
-        <v>2598266</v>
+        <v>2614554</v>
       </c>
       <c r="M18">
+        <v>26013.61455911792</v>
+      </c>
+      <c r="N18">
         <v>39623200</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>312</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4360</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>14662</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-17699</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>828375000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>4263</v>
       </c>
-      <c r="T18">
+      <c r="U18">
+        <v>46857</v>
+      </c>
+      <c r="V18">
         <v>1109064</v>
       </c>
-      <c r="U18">
-        <v>88869.7</v>
-      </c>
-      <c r="V18">
+      <c r="W18">
+        <v>88869700000</v>
+      </c>
+      <c r="X18">
+        <v>2702162</v>
+      </c>
+      <c r="Y18">
         <v>32888.36864703152</v>
       </c>
-      <c r="W18">
-        <v>2702162</v>
-      </c>
-      <c r="X18">
+      <c r="Z18">
         <v>41714000</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>615</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>3863</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>17835</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>-33045</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>982537092</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>-8353</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
+        <v>40031</v>
+      </c>
+      <c r="AH18">
         <v>1124369</v>
       </c>
-      <c r="AF18">
-        <v>129235.7</v>
-      </c>
-      <c r="AG18">
-        <v>45200.44110718884</v>
-      </c>
-      <c r="AH18">
-        <v>2859169</v>
-      </c>
       <c r="AI18">
+        <v>129235700000</v>
+      </c>
+      <c r="AJ18">
+        <v>2858835</v>
+      </c>
+      <c r="AK18">
+        <v>45205.7219111981</v>
+      </c>
+      <c r="AL18">
         <v>56199800</v>
       </c>
-      <c r="AJ18">
+      <c r="AM18">
         <v>915</v>
       </c>
-      <c r="AK18">
+      <c r="AN18">
         <v>3470</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>20081</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>14619</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>1014935813</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>955</v>
       </c>
-      <c r="AP18">
+      <c r="AS18">
+        <v>35366</v>
+      </c>
+      <c r="AT18">
         <v>1191932</v>
       </c>
-      <c r="AQ18">
-        <v>155699</v>
-      </c>
-      <c r="AR18">
+      <c r="AU18">
+        <v>155699000000</v>
+      </c>
+      <c r="AV18">
+        <v>2922703</v>
+      </c>
+      <c r="AW18">
         <v>53272.26201225373</v>
-      </c>
-      <c r="AS18">
-        <v>2922703</v>
       </c>
     </row>
     <row r="19">
@@ -2966,115 +3172,127 @@
         <v>-1553</v>
       </c>
       <c r="I19">
+        <v>26385</v>
+      </c>
+      <c r="J19">
         <v>1347665</v>
       </c>
-      <c r="J19">
-        <v>95410</v>
-      </c>
       <c r="K19">
-        <v>24583.54708557038</v>
+        <v>95410000000</v>
       </c>
       <c r="L19">
-        <v>3881051</v>
+        <v>3919535</v>
       </c>
       <c r="M19">
+        <v>24342.17324248923</v>
+      </c>
+      <c r="N19">
         <v>23855100</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>481</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5050</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>15434</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-24740</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1001625000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>199</v>
       </c>
-      <c r="T19">
+      <c r="U19">
+        <v>31116</v>
+      </c>
+      <c r="V19">
         <v>1487755</v>
       </c>
-      <c r="U19">
-        <v>117767.9</v>
-      </c>
-      <c r="V19">
+      <c r="W19">
+        <v>117767900000</v>
+      </c>
+      <c r="X19">
+        <v>4068132</v>
+      </c>
+      <c r="Y19">
         <v>28948.88858080318</v>
       </c>
-      <c r="W19">
-        <v>4068132</v>
-      </c>
-      <c r="X19">
+      <c r="Z19">
         <v>11879900</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>536</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>4819</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>20389</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>-28095</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>1302510004</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>-1905</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
+        <v>31805</v>
+      </c>
+      <c r="AH19">
         <v>1441204</v>
       </c>
-      <c r="AF19">
-        <v>166656.3</v>
-      </c>
-      <c r="AG19">
-        <v>38344.70784807004</v>
-      </c>
-      <c r="AH19">
-        <v>4346266</v>
-      </c>
       <c r="AI19">
+        <v>166656300000</v>
+      </c>
+      <c r="AJ19">
+        <v>4349159</v>
+      </c>
+      <c r="AK19">
+        <v>38319.20148240154</v>
+      </c>
+      <c r="AL19">
         <v>22582000</v>
       </c>
-      <c r="AJ19">
+      <c r="AM19">
         <v>663</v>
       </c>
-      <c r="AK19">
+      <c r="AN19">
         <v>4284</v>
       </c>
-      <c r="AL19">
+      <c r="AO19">
         <v>22608</v>
       </c>
-      <c r="AM19">
+      <c r="AP19">
         <v>42467</v>
       </c>
-      <c r="AN19">
+      <c r="AQ19">
         <v>1197547900</v>
       </c>
-      <c r="AO19">
+      <c r="AR19">
         <v>397</v>
       </c>
-      <c r="AP19">
+      <c r="AS19">
+        <v>36255</v>
+      </c>
+      <c r="AT19">
         <v>1577256</v>
       </c>
-      <c r="AQ19">
-        <v>194621.2</v>
-      </c>
-      <c r="AR19">
+      <c r="AU19">
+        <v>194621200000</v>
+      </c>
+      <c r="AV19">
+        <v>4443778</v>
+      </c>
+      <c r="AW19">
         <v>43796.33726077226</v>
-      </c>
-      <c r="AS19">
-        <v>4443778</v>
       </c>
     </row>
     <row r="20">
@@ -3105,115 +3323,127 @@
         <v>-1048</v>
       </c>
       <c r="I20">
+        <v>25293</v>
+      </c>
+      <c r="J20">
         <v>1441126</v>
       </c>
-      <c r="J20">
-        <v>121143</v>
-      </c>
       <c r="K20">
-        <v>27921.09179505772</v>
+        <v>121143000000</v>
       </c>
       <c r="L20">
-        <v>4338763</v>
+        <v>4398877</v>
       </c>
       <c r="M20">
+        <v>27539.52883883773</v>
+      </c>
+      <c r="N20">
         <v>29464100</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>520</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>5714</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>19990</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-9873</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1007996023</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1313</v>
       </c>
-      <c r="T20">
+      <c r="U20">
+        <v>31181</v>
+      </c>
+      <c r="V20">
         <v>1587050</v>
       </c>
-      <c r="U20">
-        <v>138204.3</v>
-      </c>
-      <c r="V20">
+      <c r="W20">
+        <v>138204300000</v>
+      </c>
+      <c r="X20">
+        <v>4477875</v>
+      </c>
+      <c r="Y20">
         <v>30863.81375094213</v>
       </c>
-      <c r="W20">
-        <v>4477875</v>
-      </c>
-      <c r="X20">
+      <c r="Z20">
         <v>17951000</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>304</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>5429</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>20893</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>-39578</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>1493619738</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>-4009</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
+        <v>24141</v>
+      </c>
+      <c r="AH20">
         <v>1591037</v>
       </c>
-      <c r="AF20">
-        <v>226555.6</v>
-      </c>
-      <c r="AG20">
-        <v>49855.68505805606</v>
-      </c>
-      <c r="AH20">
-        <v>4544228</v>
-      </c>
       <c r="AI20">
+        <v>226555600000</v>
+      </c>
+      <c r="AJ20">
+        <v>4544804</v>
+      </c>
+      <c r="AK20">
+        <v>49849.36644132508</v>
+      </c>
+      <c r="AL20">
         <v>10100000</v>
       </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>399</v>
       </c>
-      <c r="AK20">
+      <c r="AN20">
         <v>5035</v>
       </c>
-      <c r="AL20">
+      <c r="AO20">
         <v>22247</v>
       </c>
-      <c r="AM20">
+      <c r="AP20">
         <v>10452</v>
       </c>
-      <c r="AN20">
+      <c r="AQ20">
         <v>1120321587</v>
       </c>
-      <c r="AO20">
+      <c r="AR20">
         <v>467</v>
       </c>
-      <c r="AP20">
+      <c r="AS20">
+        <v>26296</v>
+      </c>
+      <c r="AT20">
         <v>1715196</v>
       </c>
-      <c r="AQ20">
-        <v>234324.2</v>
-      </c>
-      <c r="AR20">
+      <c r="AU20">
+        <v>234324200000</v>
+      </c>
+      <c r="AV20">
+        <v>4670550</v>
+      </c>
+      <c r="AW20">
         <v>50170.57948207384</v>
-      </c>
-      <c r="AS20">
-        <v>4670550</v>
       </c>
     </row>
     <row r="21">
@@ -3244,115 +3474,127 @@
         <v>293</v>
       </c>
       <c r="I21">
+        <v>9413</v>
+      </c>
+      <c r="J21">
         <v>432687</v>
       </c>
-      <c r="J21">
-        <v>28894</v>
-      </c>
       <c r="K21">
-        <v>23274.65934611208</v>
+        <v>28894000000</v>
       </c>
       <c r="L21">
-        <v>1241436</v>
+        <v>1249060</v>
       </c>
       <c r="M21">
+        <v>23132.59571197541</v>
+      </c>
+      <c r="N21">
         <v>4601198500</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>145</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2218</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>5429</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3047</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>226587350</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>442</v>
       </c>
-      <c r="T21">
+      <c r="U21">
+        <v>12115</v>
+      </c>
+      <c r="V21">
         <v>495102</v>
       </c>
-      <c r="U21">
-        <v>38925.7</v>
-      </c>
-      <c r="V21">
+      <c r="W21">
+        <v>38925700000</v>
+      </c>
+      <c r="X21">
+        <v>1285692</v>
+      </c>
+      <c r="Y21">
         <v>30276.06922964442</v>
       </c>
-      <c r="W21">
-        <v>1285692</v>
-      </c>
-      <c r="X21">
+      <c r="Z21">
         <v>2372657300</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>211</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>2042</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>7088</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>-8757</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>270023801</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>-1836</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
+        <v>10851</v>
+      </c>
+      <c r="AH21">
         <v>479840</v>
       </c>
-      <c r="AF21">
-        <v>52802.5</v>
-      </c>
-      <c r="AG21">
-        <v>39773.88711831493</v>
-      </c>
-      <c r="AH21">
-        <v>1327567</v>
-      </c>
       <c r="AI21">
+        <v>52802500000</v>
+      </c>
+      <c r="AJ21">
+        <v>1327967</v>
+      </c>
+      <c r="AK21">
+        <v>39761.90673412818</v>
+      </c>
+      <c r="AL21">
         <v>88168000</v>
       </c>
-      <c r="AJ21">
+      <c r="AM21">
         <v>201</v>
       </c>
-      <c r="AK21">
+      <c r="AN21">
         <v>1777</v>
       </c>
-      <c r="AL21">
+      <c r="AO21">
         <v>7418</v>
       </c>
-      <c r="AM21">
+      <c r="AP21">
         <v>8857</v>
       </c>
-      <c r="AN21">
+      <c r="AQ21">
         <v>273310554</v>
       </c>
-      <c r="AO21">
+      <c r="AR21">
         <v>-27</v>
       </c>
-      <c r="AP21">
+      <c r="AS21">
+        <v>10885</v>
+      </c>
+      <c r="AT21">
         <v>499674</v>
       </c>
-      <c r="AQ21">
-        <v>58755.8</v>
-      </c>
-      <c r="AR21">
+      <c r="AU21">
+        <v>58755800000</v>
+      </c>
+      <c r="AV21">
+        <v>1335768</v>
+      </c>
+      <c r="AW21">
         <v>43986.53059513328</v>
-      </c>
-      <c r="AS21">
-        <v>1335768</v>
       </c>
     </row>
     <row r="22">
@@ -3383,115 +3625,127 @@
         <v>1184</v>
       </c>
       <c r="I22">
+        <v>54482</v>
+      </c>
+      <c r="J22">
         <v>1803871</v>
       </c>
-      <c r="J22">
-        <v>143190</v>
-      </c>
       <c r="K22">
-        <v>28314.41157871383</v>
+        <v>143190000000</v>
       </c>
       <c r="L22">
-        <v>5057142</v>
+        <v>5111986</v>
       </c>
       <c r="M22">
+        <v>28010.64009173734</v>
+      </c>
+      <c r="N22">
         <v>859217500</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1483</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>6921</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>22085</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>13089</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1479134821</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-1426</v>
       </c>
-      <c r="T22">
+      <c r="U22">
+        <v>72232</v>
+      </c>
+      <c r="V22">
         <v>2077928</v>
       </c>
-      <c r="U22">
-        <v>205276</v>
-      </c>
-      <c r="V22">
+      <c r="W22">
+        <v>205276000000</v>
+      </c>
+      <c r="X22">
+        <v>5374691</v>
+      </c>
+      <c r="Y22">
         <v>38193.07937888894</v>
       </c>
-      <c r="W22">
-        <v>5374691</v>
-      </c>
-      <c r="X22">
+      <c r="Z22">
         <v>357082400</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>1578</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>7630</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>28012</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>-49199</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>1928928176</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>-1063</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
+        <v>54660</v>
+      </c>
+      <c r="AH22">
         <v>2071715</v>
       </c>
-      <c r="AF22">
-        <v>313930.5</v>
-      </c>
-      <c r="AG22">
-        <v>54257.08203032778</v>
-      </c>
-      <c r="AH22">
-        <v>5785982</v>
-      </c>
       <c r="AI22">
+        <v>313930500000</v>
+      </c>
+      <c r="AJ22">
+        <v>5791715</v>
+      </c>
+      <c r="AK22">
+        <v>54203.37499341732</v>
+      </c>
+      <c r="AL22">
         <v>820012600</v>
       </c>
-      <c r="AJ22">
+      <c r="AM22">
         <v>1838</v>
       </c>
-      <c r="AK22">
+      <c r="AN22">
         <v>6619</v>
       </c>
-      <c r="AL22">
+      <c r="AO22">
         <v>33219</v>
       </c>
-      <c r="AM22">
+      <c r="AP22">
         <v>27180</v>
       </c>
-      <c r="AN22">
+      <c r="AQ22">
         <v>2146725629</v>
       </c>
-      <c r="AO22">
+      <c r="AR22">
         <v>-2689</v>
       </c>
-      <c r="AP22">
+      <c r="AS22">
+        <v>50741</v>
+      </c>
+      <c r="AT22">
         <v>2232658</v>
       </c>
-      <c r="AQ22">
-        <v>367314.1</v>
-      </c>
-      <c r="AR22">
+      <c r="AU22">
+        <v>367314100000</v>
+      </c>
+      <c r="AV22">
+        <v>6050280</v>
+      </c>
+      <c r="AW22">
         <v>60710.26464890881</v>
-      </c>
-      <c r="AS22">
-        <v>6050280</v>
       </c>
     </row>
     <row r="23">
@@ -3522,115 +3776,127 @@
         <v>4632</v>
       </c>
       <c r="I23">
+        <v>103985</v>
+      </c>
+      <c r="J23">
         <v>2708736</v>
       </c>
-      <c r="J23">
-        <v>208591</v>
-      </c>
       <c r="K23">
-        <v>34277.32604944331</v>
+        <v>208591000000</v>
       </c>
       <c r="L23">
-        <v>6085393</v>
+        <v>6179756</v>
       </c>
       <c r="M23">
+        <v>33753.92167587199</v>
+      </c>
+      <c r="N23">
         <v>1518000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3667</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9078</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>42731</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>33782</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1131804500</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3773</v>
       </c>
-      <c r="T23">
+      <c r="U23">
+        <v>137939</v>
+      </c>
+      <c r="V23">
         <v>3076232</v>
       </c>
-      <c r="U23">
-        <v>294876.4</v>
-      </c>
-      <c r="V23">
+      <c r="W23">
+        <v>294876400000</v>
+      </c>
+      <c r="X23">
+        <v>6397634</v>
+      </c>
+      <c r="Y23">
         <v>46091.47694288232</v>
       </c>
-      <c r="W23">
-        <v>6397634</v>
-      </c>
-      <c r="X23">
+      <c r="Z23">
         <v>2178500</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>4923</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>8721</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>52223</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>-34773</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>1208725729</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>-2198</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
+        <v>101852</v>
+      </c>
+      <c r="AH23">
         <v>2929906</v>
       </c>
-      <c r="AF23">
-        <v>409270</v>
-      </c>
-      <c r="AG23">
-        <v>62414.84621458922</v>
-      </c>
-      <c r="AH23">
-        <v>6557254</v>
-      </c>
       <c r="AI23">
+        <v>409270000000</v>
+      </c>
+      <c r="AJ23">
+        <v>6569724</v>
+      </c>
+      <c r="AK23">
+        <v>62296.37652966852</v>
+      </c>
+      <c r="AL23">
         <v>5713623700</v>
       </c>
-      <c r="AJ23">
+      <c r="AM23">
         <v>6777</v>
       </c>
-      <c r="AK23">
+      <c r="AN23">
         <v>7816</v>
       </c>
-      <c r="AL23">
+      <c r="AO23">
         <v>59625</v>
       </c>
-      <c r="AM23">
+      <c r="AP23">
         <v>82792</v>
       </c>
-      <c r="AN23">
+      <c r="AQ23">
         <v>1462827301</v>
       </c>
-      <c r="AO23">
+      <c r="AR23">
         <v>5000</v>
       </c>
-      <c r="AP23">
+      <c r="AS23">
+        <v>115280</v>
+      </c>
+      <c r="AT23">
         <v>3170450</v>
       </c>
-      <c r="AQ23">
-        <v>497767</v>
-      </c>
-      <c r="AR23">
+      <c r="AU23">
+        <v>497767000000</v>
+      </c>
+      <c r="AV23">
+        <v>6866661</v>
+      </c>
+      <c r="AW23">
         <v>72490.39962799969</v>
-      </c>
-      <c r="AS23">
-        <v>6866661</v>
       </c>
     </row>
     <row r="24">
@@ -3661,115 +3927,127 @@
         <v>2274</v>
       </c>
       <c r="I24">
+        <v>88150</v>
+      </c>
+      <c r="J24">
         <v>3659943</v>
       </c>
-      <c r="J24">
-        <v>263336</v>
-      </c>
       <c r="K24">
-        <v>27038.81557222864</v>
+        <v>263336000000</v>
       </c>
       <c r="L24">
-        <v>9739184</v>
+        <v>9758645</v>
       </c>
       <c r="M24">
+        <v>26984.89390688974</v>
+      </c>
+      <c r="N24">
         <v>131933300</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3854</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12945</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>46115</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-79277</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2571300000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>583</v>
       </c>
-      <c r="T24">
+      <c r="U24">
+        <v>101086</v>
+      </c>
+      <c r="V24">
         <v>3963812</v>
       </c>
-      <c r="U24">
-        <v>349127.5</v>
-      </c>
-      <c r="V24">
+      <c r="W24">
+        <v>349127500000</v>
+      </c>
+      <c r="X24">
+        <v>9991120</v>
+      </c>
+      <c r="Y24">
         <v>34943.78007670811</v>
       </c>
-      <c r="W24">
-        <v>9991120</v>
-      </c>
-      <c r="X24">
+      <c r="Z24">
         <v>151558700</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>3823</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>12633</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>56061</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>-90378</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>2471351418</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>-5104</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
+        <v>69908</v>
+      </c>
+      <c r="AH24">
         <v>3280450</v>
       </c>
-      <c r="AF24">
-        <v>393179.6</v>
-      </c>
-      <c r="AG24">
-        <v>39805.28012242683</v>
-      </c>
-      <c r="AH24">
-        <v>9877574</v>
-      </c>
       <c r="AI24">
+        <v>393179600000</v>
+      </c>
+      <c r="AJ24">
+        <v>9880111</v>
+      </c>
+      <c r="AK24">
+        <v>39795.05898263693</v>
+      </c>
+      <c r="AL24">
         <v>328400000</v>
       </c>
-      <c r="AJ24">
+      <c r="AM24">
         <v>5561</v>
       </c>
-      <c r="AK24">
+      <c r="AN24">
         <v>10233</v>
       </c>
-      <c r="AL24">
+      <c r="AO24">
         <v>59970</v>
       </c>
-      <c r="AM24">
+      <c r="AP24">
         <v>123019</v>
       </c>
-      <c r="AN24">
+      <c r="AQ24">
         <v>2315693983</v>
       </c>
-      <c r="AO24">
+      <c r="AR24">
         <v>-241</v>
       </c>
-      <c r="AP24">
+      <c r="AS24">
+        <v>69433</v>
+      </c>
+      <c r="AT24">
         <v>3717839</v>
       </c>
-      <c r="AQ24">
-        <v>479222.7</v>
-      </c>
-      <c r="AR24">
+      <c r="AU24">
+        <v>479222700000</v>
+      </c>
+      <c r="AV24">
+        <v>9987448</v>
+      </c>
+      <c r="AW24">
         <v>47982.49763102646</v>
-      </c>
-      <c r="AS24">
-        <v>9987448</v>
       </c>
     </row>
     <row r="25">
@@ -3800,115 +4078,127 @@
         <v>1305</v>
       </c>
       <c r="I25">
+        <v>56416</v>
+      </c>
+      <c r="J25">
         <v>2082302</v>
       </c>
-      <c r="J25">
-        <v>141573</v>
-      </c>
       <c r="K25">
-        <v>30460.7223795394</v>
+        <v>141573000000</v>
       </c>
       <c r="L25">
-        <v>4647723</v>
+        <v>4712827</v>
       </c>
       <c r="M25">
+        <v>30039.93144666672</v>
+      </c>
+      <c r="N25">
         <v>429408700</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2635</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>6978</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>23355</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2326</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1315100000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3978</v>
       </c>
-      <c r="T25">
+      <c r="U25">
+        <v>70510</v>
+      </c>
+      <c r="V25">
         <v>2376080</v>
       </c>
-      <c r="U25">
-        <v>196869.4</v>
-      </c>
-      <c r="V25">
+      <c r="W25">
+        <v>196869400000</v>
+      </c>
+      <c r="X25">
+        <v>4982796</v>
+      </c>
+      <c r="Y25">
         <v>39509.82540726131</v>
       </c>
-      <c r="W25">
-        <v>4982796</v>
-      </c>
-      <c r="X25">
+      <c r="Z25">
         <v>139510200</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>3597</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>7238</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>31952</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>-26270</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>1566839000</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>-3521</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
+        <v>61524</v>
+      </c>
+      <c r="AH25">
         <v>2350302</v>
       </c>
-      <c r="AF25">
-        <v>274649.2</v>
-      </c>
-      <c r="AG25">
-        <v>51717.32525085753</v>
-      </c>
-      <c r="AH25">
-        <v>5310584</v>
-      </c>
       <c r="AI25">
+        <v>274649200000</v>
+      </c>
+      <c r="AJ25">
+        <v>5312197</v>
+      </c>
+      <c r="AK25">
+        <v>51701.62175837982</v>
+      </c>
+      <c r="AL25">
         <v>371688400</v>
       </c>
-      <c r="AJ25">
+      <c r="AM25">
         <v>4394</v>
       </c>
-      <c r="AK25">
+      <c r="AN25">
         <v>6405</v>
       </c>
-      <c r="AL25">
+      <c r="AO25">
         <v>36726</v>
       </c>
-      <c r="AM25">
+      <c r="AP25">
         <v>43907</v>
       </c>
-      <c r="AN25">
+      <c r="AQ25">
         <v>1445822000</v>
       </c>
-      <c r="AO25">
+      <c r="AR25">
         <v>-3840</v>
       </c>
-      <c r="AP25">
+      <c r="AS25">
+        <v>58126</v>
+      </c>
+      <c r="AT25">
         <v>2578964</v>
       </c>
-      <c r="AQ25">
-        <v>336762</v>
-      </c>
-      <c r="AR25">
+      <c r="AU25">
+        <v>336762000000</v>
+      </c>
+      <c r="AV25">
+        <v>5510593</v>
+      </c>
+      <c r="AW25">
         <v>61111.75330858221</v>
-      </c>
-      <c r="AS25">
-        <v>5510593</v>
       </c>
     </row>
     <row r="26">
@@ -3939,115 +4229,124 @@
         <v>347</v>
       </c>
       <c r="I26">
+        <v>13946</v>
+      </c>
+      <c r="J26">
         <v>854750</v>
       </c>
-      <c r="J26">
-        <v>56406</v>
-      </c>
       <c r="K26">
-        <v>20814.59818998681</v>
+        <v>56406000000</v>
       </c>
       <c r="L26">
-        <v>2709925</v>
+        <v>2748085</v>
       </c>
       <c r="M26">
+        <v>20525.56598504049</v>
+      </c>
+      <c r="N26">
         <v>237166900</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>166</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3844</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>11232</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-37269</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>829228920</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>605</v>
       </c>
-      <c r="T26">
+      <c r="U26">
+        <v>17640</v>
+      </c>
+      <c r="V26">
         <v>921124</v>
       </c>
-      <c r="U26">
-        <v>67750.2</v>
-      </c>
-      <c r="V26">
+      <c r="W26">
+        <v>67750200000</v>
+      </c>
+      <c r="X26">
+        <v>2852994</v>
+      </c>
+      <c r="Y26">
         <v>23747.05309580041</v>
       </c>
-      <c r="W26">
-        <v>2852994</v>
-      </c>
-      <c r="X26">
+      <c r="Z26">
         <v>60944800</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>145</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>3308</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>12953</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>-19890</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>1120041441</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>-1062</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
+        <v>12963</v>
+      </c>
+      <c r="AH26">
         <v>881925</v>
       </c>
-      <c r="AF26">
-        <v>94788.3</v>
-      </c>
-      <c r="AG26">
-        <v>31914.86567839582</v>
-      </c>
-      <c r="AH26">
-        <v>2970036</v>
-      </c>
       <c r="AI26">
-        <v>0</v>
+        <v>94788300000</v>
       </c>
       <c r="AJ26">
+        <v>2970367</v>
+      </c>
+      <c r="AK26">
+        <v>31911.30927592449</v>
+      </c>
+      <c r="AM26">
         <v>138</v>
       </c>
-      <c r="AK26">
+      <c r="AN26">
         <v>2858</v>
       </c>
-      <c r="AL26">
+      <c r="AO26">
         <v>14296</v>
       </c>
-      <c r="AM26">
+      <c r="AP26">
         <v>17769</v>
       </c>
-      <c r="AN26">
+      <c r="AQ26">
         <v>1063554278</v>
       </c>
-      <c r="AO26">
+      <c r="AR26">
         <v>420</v>
       </c>
-      <c r="AP26">
+      <c r="AS26">
+        <v>13795</v>
+      </c>
+      <c r="AT26">
         <v>925731</v>
       </c>
-      <c r="AQ26">
-        <v>106623.9</v>
-      </c>
-      <c r="AR26">
+      <c r="AU26">
+        <v>106623900000</v>
+      </c>
+      <c r="AV26">
+        <v>2985000</v>
+      </c>
+      <c r="AW26">
         <v>35719.89949748744</v>
-      </c>
-      <c r="AS26">
-        <v>2985000</v>
       </c>
     </row>
     <row r="27">
@@ -4078,115 +4377,124 @@
         <v>4382</v>
       </c>
       <c r="I27">
+        <v>71709</v>
+      </c>
+      <c r="J27">
         <v>2141428</v>
       </c>
-      <c r="J27">
-        <v>145123</v>
-      </c>
       <c r="K27">
-        <v>27035.40014247689</v>
+        <v>145123000000</v>
       </c>
       <c r="L27">
-        <v>5367888</v>
+        <v>5431553</v>
       </c>
       <c r="M27">
+        <v>26718.50942078628</v>
+      </c>
+      <c r="N27">
         <v>30000300</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>841</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>8665</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>30174</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-8646</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1104667983</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4037</v>
       </c>
-      <c r="T27">
+      <c r="U27">
+        <v>86073</v>
+      </c>
+      <c r="V27">
         <v>2368690</v>
       </c>
-      <c r="U27">
-        <v>190388.7</v>
-      </c>
-      <c r="V27">
+      <c r="W27">
+        <v>190388700000</v>
+      </c>
+      <c r="X27">
+        <v>5641142</v>
+      </c>
+      <c r="Y27">
         <v>33750.02791987864</v>
       </c>
-      <c r="W27">
-        <v>5641142</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>975</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>8817</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>39670</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>-57837</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>1223484909</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>-3874</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
+        <v>60475</v>
+      </c>
+      <c r="AH27">
         <v>2277280</v>
       </c>
-      <c r="AF27">
-        <v>262013.4</v>
-      </c>
-      <c r="AG27">
-        <v>43696.34858963906</v>
-      </c>
-      <c r="AH27">
-        <v>5996231</v>
-      </c>
       <c r="AI27">
+        <v>262013400000</v>
+      </c>
+      <c r="AJ27">
+        <v>5996167</v>
+      </c>
+      <c r="AK27">
+        <v>43696.81498197098</v>
+      </c>
+      <c r="AL27">
         <v>257182300</v>
       </c>
-      <c r="AJ27">
+      <c r="AM27">
         <v>1082</v>
       </c>
-      <c r="AK27">
+      <c r="AN27">
         <v>8205</v>
       </c>
-      <c r="AL27">
+      <c r="AO27">
         <v>41161</v>
       </c>
-      <c r="AM27">
+      <c r="AP27">
         <v>45577</v>
       </c>
-      <c r="AN27">
+      <c r="AQ27">
         <v>1175509296</v>
       </c>
-      <c r="AO27">
+      <c r="AR27">
         <v>895</v>
       </c>
-      <c r="AP27">
+      <c r="AS27">
+        <v>58049</v>
+      </c>
+      <c r="AT27">
         <v>2446128</v>
       </c>
-      <c r="AQ27">
-        <v>299597.7</v>
-      </c>
-      <c r="AR27">
+      <c r="AU27">
+        <v>299597700000</v>
+      </c>
+      <c r="AV27">
+        <v>6077056</v>
+      </c>
+      <c r="AW27">
         <v>49299.8089864566</v>
-      </c>
-      <c r="AS27">
-        <v>6077056</v>
       </c>
     </row>
     <row r="28">
@@ -4195,9 +4503,6 @@
           <t>Montana</t>
         </is>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
         <v>110</v>
       </c>
@@ -4217,115 +4522,127 @@
         <v>-58</v>
       </c>
       <c r="I28">
+        <v>6455</v>
+      </c>
+      <c r="J28">
         <v>263451</v>
       </c>
-      <c r="J28">
-        <v>18509</v>
-      </c>
       <c r="K28">
-        <v>21113.18464711358</v>
+        <v>18509000000</v>
       </c>
       <c r="L28">
-        <v>876656</v>
+        <v>886254</v>
       </c>
       <c r="M28">
+        <v>20884.53197390364</v>
+      </c>
+      <c r="N28">
         <v>24820000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>145</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1771</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5183</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4037</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>144822540</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1681</v>
       </c>
-      <c r="T28">
+      <c r="U28">
+        <v>9845</v>
+      </c>
+      <c r="V28">
         <v>303402</v>
       </c>
-      <c r="U28">
-        <v>22798</v>
-      </c>
-      <c r="V28">
+      <c r="W28">
+        <v>22798000000</v>
+      </c>
+      <c r="X28">
+        <v>906961</v>
+      </c>
+      <c r="Y28">
         <v>25136.69275746146</v>
       </c>
-      <c r="W28">
-        <v>906961</v>
-      </c>
-      <c r="X28">
+      <c r="Z28">
         <v>1910000</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>105</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>2072</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>5232</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>-3003</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>214768794</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>208</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
+        <v>9185</v>
+      </c>
+      <c r="AH28">
         <v>337333</v>
       </c>
-      <c r="AF28">
-        <v>38080.3</v>
-      </c>
-      <c r="AG28">
-        <v>38430.09068541868</v>
-      </c>
-      <c r="AH28">
-        <v>990898</v>
-      </c>
       <c r="AI28">
+        <v>38080300000</v>
+      </c>
+      <c r="AJ28">
+        <v>990874</v>
+      </c>
+      <c r="AK28">
+        <v>38431.02150222934</v>
+      </c>
+      <c r="AL28">
         <v>1500000</v>
       </c>
-      <c r="AJ28">
+      <c r="AM28">
         <v>142</v>
       </c>
-      <c r="AK28">
+      <c r="AN28">
         <v>1844</v>
       </c>
-      <c r="AL28">
+      <c r="AO28">
         <v>6156</v>
       </c>
-      <c r="AM28">
+      <c r="AP28">
         <v>9622</v>
       </c>
-      <c r="AN28">
+      <c r="AQ28">
         <v>246784272</v>
       </c>
-      <c r="AO28">
+      <c r="AR28">
         <v>-547</v>
       </c>
-      <c r="AP28">
+      <c r="AS28">
+        <v>8707</v>
+      </c>
+      <c r="AT28">
         <v>371453</v>
       </c>
-      <c r="AQ28">
-        <v>46542.4</v>
-      </c>
-      <c r="AR28">
+      <c r="AU28">
+        <v>46542400000</v>
+      </c>
+      <c r="AV28">
+        <v>1034544</v>
+      </c>
+      <c r="AW28">
         <v>44988.32335792388</v>
-      </c>
-      <c r="AS28">
-        <v>1034544</v>
       </c>
     </row>
     <row r="29">
@@ -4356,115 +4673,127 @@
         <v>200</v>
       </c>
       <c r="I29">
+        <v>25870</v>
+      </c>
+      <c r="J29">
         <v>673036</v>
       </c>
-      <c r="J29">
-        <v>47187</v>
-      </c>
       <c r="K29">
-        <v>28638.84898373873</v>
+        <v>47187000000</v>
       </c>
       <c r="L29">
-        <v>1647657</v>
+        <v>1673740</v>
       </c>
       <c r="M29">
+        <v>28192.55081434393</v>
+      </c>
+      <c r="N29">
         <v>542426500</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>215</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2511</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>10782</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-11519</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>509400000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>489</v>
       </c>
-      <c r="T29">
+      <c r="U29">
+        <v>26417</v>
+      </c>
+      <c r="V29">
         <v>741344</v>
       </c>
-      <c r="U29">
-        <v>59634.3</v>
-      </c>
-      <c r="V29">
+      <c r="W29">
+        <v>59634300000</v>
+      </c>
+      <c r="X29">
+        <v>1719836</v>
+      </c>
+      <c r="Y29">
         <v>34674.41081591501</v>
       </c>
-      <c r="W29">
-        <v>1719836</v>
-      </c>
-      <c r="X29">
+      <c r="Z29">
         <v>456256200</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>214</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>2237</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>12596</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>-10252</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>760923221</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>-174</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
+        <v>20734</v>
+      </c>
+      <c r="AH29">
         <v>769869</v>
       </c>
-      <c r="AF29">
-        <v>91940.7</v>
-      </c>
-      <c r="AG29">
-        <v>50229.04466657816</v>
-      </c>
-      <c r="AH29">
-        <v>1830429</v>
-      </c>
       <c r="AI29">
+        <v>91940700000</v>
+      </c>
+      <c r="AJ29">
+        <v>1830194</v>
+      </c>
+      <c r="AK29">
+        <v>50235.49416072832</v>
+      </c>
+      <c r="AL29">
         <v>119981100</v>
       </c>
-      <c r="AJ29">
+      <c r="AM29">
         <v>313</v>
       </c>
-      <c r="AK29">
+      <c r="AN29">
         <v>2203</v>
       </c>
-      <c r="AL29">
+      <c r="AO29">
         <v>14080</v>
       </c>
-      <c r="AM29">
+      <c r="AP29">
         <v>15664</v>
       </c>
-      <c r="AN29">
+      <c r="AQ29">
         <v>865751325</v>
       </c>
-      <c r="AO29">
+      <c r="AR29">
         <v>1057</v>
       </c>
-      <c r="AP29">
+      <c r="AS29">
+        <v>20890</v>
+      </c>
+      <c r="AT29">
         <v>808214</v>
       </c>
-      <c r="AQ29">
-        <v>117402.3</v>
-      </c>
-      <c r="AR29">
+      <c r="AU29">
+        <v>117402300000</v>
+      </c>
+      <c r="AV29">
+        <v>1904766</v>
+      </c>
+      <c r="AW29">
         <v>61636.07498243879</v>
-      </c>
-      <c r="AS29">
-        <v>1904766</v>
       </c>
     </row>
     <row r="30">
@@ -4473,9 +4802,6 @@
           <t>Nevada</t>
         </is>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
       <c r="C30">
         <v>195</v>
       </c>
@@ -4495,115 +4821,124 @@
         <v>-957</v>
       </c>
       <c r="I30">
+        <v>9892</v>
+      </c>
+      <c r="J30">
         <v>701686</v>
       </c>
-      <c r="J30">
-        <v>53687</v>
-      </c>
       <c r="K30">
-        <v>33628.44164271808</v>
+        <v>53687000000</v>
       </c>
       <c r="L30">
-        <v>1596476</v>
+        <v>1666320</v>
       </c>
       <c r="M30">
+        <v>32218.90153151856</v>
+      </c>
+      <c r="N30">
         <v>1017000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>313</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3637</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4358</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>18951</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>347634743</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>29</v>
       </c>
-      <c r="T30">
+      <c r="U30">
+        <v>21174</v>
+      </c>
+      <c r="V30">
         <v>938445</v>
       </c>
-      <c r="U30">
-        <v>80968.60000000001</v>
-      </c>
-      <c r="V30">
+      <c r="W30">
+        <v>80968600000</v>
+      </c>
+      <c r="X30">
+        <v>2098399</v>
+      </c>
+      <c r="Y30">
         <v>38585.89334058966</v>
       </c>
-      <c r="W30">
-        <v>2098399</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>540</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>4928</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>7345</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>-47265</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>645494029</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>-1701</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
+        <v>15784</v>
+      </c>
+      <c r="AH30">
         <v>1000394</v>
       </c>
-      <c r="AF30">
-        <v>125149</v>
-      </c>
-      <c r="AG30">
-        <v>46271.92804075364</v>
-      </c>
-      <c r="AH30">
-        <v>2704642</v>
-      </c>
       <c r="AI30">
+        <v>125149000000</v>
+      </c>
+      <c r="AJ30">
+        <v>2701888</v>
+      </c>
+      <c r="AK30">
+        <v>46319.09242722127</v>
+      </c>
+      <c r="AL30">
         <v>12242000</v>
       </c>
-      <c r="AJ30">
+      <c r="AM30">
         <v>725</v>
       </c>
-      <c r="AK30">
+      <c r="AN30">
         <v>3711</v>
       </c>
-      <c r="AL30">
+      <c r="AO30">
         <v>8519</v>
       </c>
-      <c r="AM30">
+      <c r="AP30">
         <v>39361</v>
       </c>
-      <c r="AN30">
+      <c r="AQ30">
         <v>563476687</v>
       </c>
-      <c r="AO30">
+      <c r="AR30">
         <v>127</v>
       </c>
-      <c r="AP30">
+      <c r="AS30">
+        <v>16756</v>
+      </c>
+      <c r="AT30">
         <v>1126385</v>
       </c>
-      <c r="AQ30">
-        <v>145786.8</v>
-      </c>
-      <c r="AR30">
+      <c r="AU30">
+        <v>145786800000</v>
+      </c>
+      <c r="AV30">
+        <v>2855986</v>
+      </c>
+      <c r="AW30">
         <v>51046.04854505589</v>
-      </c>
-      <c r="AS30">
-        <v>2855986</v>
       </c>
     </row>
     <row r="31">
@@ -4634,115 +4969,127 @@
         <v>892</v>
       </c>
       <c r="I31">
+        <v>11925</v>
+      </c>
+      <c r="J31">
         <v>478730</v>
       </c>
-      <c r="J31">
-        <v>34108</v>
-      </c>
       <c r="K31">
-        <v>29383.99404532172</v>
+        <v>34108000000</v>
       </c>
       <c r="L31">
-        <v>1160768</v>
+        <v>1174719</v>
       </c>
       <c r="M31">
+        <v>29035.0288026328</v>
+      </c>
+      <c r="N31">
         <v>88351700</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>598</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2065</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>7254</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3927</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>107600000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1425</v>
       </c>
-      <c r="T31">
+      <c r="U31">
+        <v>15468</v>
+      </c>
+      <c r="V31">
         <v>558508</v>
       </c>
-      <c r="U31">
-        <v>47037.3</v>
-      </c>
-      <c r="V31">
+      <c r="W31">
+        <v>47037300000</v>
+      </c>
+      <c r="X31">
+        <v>1255517</v>
+      </c>
+      <c r="Y31">
         <v>37464.48674131852</v>
       </c>
-      <c r="W31">
-        <v>1255517</v>
-      </c>
-      <c r="X31">
+      <c r="Z31">
         <v>11500000</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>725</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>2013</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>9396</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>-3781</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>144610959</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>-2496</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
+        <v>12724</v>
+      </c>
+      <c r="AH31">
         <v>562215</v>
       </c>
-      <c r="AF31">
-        <v>65310.8</v>
-      </c>
-      <c r="AG31">
-        <v>49599.66098579922</v>
-      </c>
-      <c r="AH31">
-        <v>1316759</v>
-      </c>
       <c r="AI31">
+        <v>65310800000</v>
+      </c>
+      <c r="AJ31">
+        <v>1317105</v>
+      </c>
+      <c r="AK31">
+        <v>49586.63128604022</v>
+      </c>
+      <c r="AL31">
         <v>125708600</v>
       </c>
-      <c r="AJ31">
+      <c r="AM31">
         <v>850</v>
       </c>
-      <c r="AK31">
+      <c r="AN31">
         <v>1725</v>
       </c>
-      <c r="AL31">
+      <c r="AO31">
         <v>11832</v>
       </c>
-      <c r="AM31">
+      <c r="AP31">
         <v>14608</v>
       </c>
-      <c r="AN31">
+      <c r="AQ31">
         <v>165579413</v>
       </c>
-      <c r="AO31">
+      <c r="AR31">
         <v>-247</v>
       </c>
-      <c r="AP31">
+      <c r="AS31">
+        <v>14070</v>
+      </c>
+      <c r="AT31">
         <v>577604</v>
       </c>
-      <c r="AQ31">
-        <v>77385.8</v>
-      </c>
-      <c r="AR31">
+      <c r="AU31">
+        <v>77385800000</v>
+      </c>
+      <c r="AV31">
+        <v>1343764</v>
+      </c>
+      <c r="AW31">
         <v>57588.83256286074</v>
-      </c>
-      <c r="AS31">
-        <v>1343764</v>
       </c>
     </row>
     <row r="32">
@@ -4773,115 +5120,127 @@
         <v>1394</v>
       </c>
       <c r="I32">
+        <v>116864</v>
+      </c>
+      <c r="J32">
         <v>3166940</v>
       </c>
-      <c r="J32">
-        <v>276377</v>
-      </c>
       <c r="K32">
-        <v>34505.61474546121</v>
+        <v>276377000000</v>
       </c>
       <c r="L32">
-        <v>8009624</v>
+        <v>8149596</v>
       </c>
       <c r="M32">
+        <v>33912.96942817779</v>
+      </c>
+      <c r="N32">
         <v>218657100</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>3869</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>13472</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>26948</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>57399</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1869850647</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-7288</v>
       </c>
-      <c r="T32">
+      <c r="U32">
+        <v>122299</v>
+      </c>
+      <c r="V32">
         <v>3602747</v>
       </c>
-      <c r="U32">
-        <v>372819.2</v>
-      </c>
-      <c r="V32">
+      <c r="W32">
+        <v>372819200000</v>
+      </c>
+      <c r="X32">
+        <v>8492671</v>
+      </c>
+      <c r="Y32">
         <v>43898.93356283318</v>
       </c>
-      <c r="W32">
-        <v>8492671</v>
-      </c>
-      <c r="X32">
+      <c r="Z32">
         <v>56944100</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>3874</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>14747</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>36025</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>-67078</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>2643071196</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>-6479</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
+        <v>98415</v>
+      </c>
+      <c r="AH32">
         <v>3354990</v>
       </c>
-      <c r="AF32">
-        <v>491229</v>
-      </c>
-      <c r="AG32">
-        <v>55811.17757359324</v>
-      </c>
-      <c r="AH32">
-        <v>8801624</v>
-      </c>
       <c r="AI32">
+        <v>491229000000</v>
+      </c>
+      <c r="AJ32">
+        <v>8809368</v>
+      </c>
+      <c r="AK32">
+        <v>55762.11596564022</v>
+      </c>
+      <c r="AL32">
         <v>966108200</v>
       </c>
-      <c r="AJ32">
+      <c r="AM32">
         <v>4602</v>
       </c>
-      <c r="AK32">
+      <c r="AN32">
         <v>13409</v>
       </c>
-      <c r="AL32">
+      <c r="AO32">
         <v>42016</v>
       </c>
-      <c r="AM32">
+      <c r="AP32">
         <v>49646</v>
       </c>
-      <c r="AN32">
+      <c r="AQ32">
         <v>2495447127</v>
       </c>
-      <c r="AO32">
+      <c r="AR32">
         <v>-5748</v>
       </c>
-      <c r="AP32">
+      <c r="AS32">
+        <v>87125</v>
+      </c>
+      <c r="AT32">
         <v>3544448</v>
       </c>
-      <c r="AQ32">
-        <v>565807.7</v>
-      </c>
-      <c r="AR32">
+      <c r="AU32">
+        <v>565807700000</v>
+      </c>
+      <c r="AV32">
+        <v>9079218</v>
+      </c>
+      <c r="AW32">
         <v>62318.99046812181</v>
-      </c>
-      <c r="AS32">
-        <v>9079218</v>
       </c>
     </row>
     <row r="33">
@@ -4912,115 +5271,127 @@
         <v>702</v>
       </c>
       <c r="I33">
+        <v>11751</v>
+      </c>
+      <c r="J33">
         <v>506906</v>
       </c>
-      <c r="J33">
-        <v>42698</v>
-      </c>
       <c r="K33">
-        <v>25025.92091790234</v>
+        <v>42698000000</v>
       </c>
       <c r="L33">
-        <v>1706151</v>
+        <v>1752326</v>
       </c>
       <c r="M33">
+        <v>24366.4706224755</v>
+      </c>
+      <c r="N33">
         <v>1420375000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>376</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2583</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>6551</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2096</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>528232050</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1039</v>
       </c>
-      <c r="T33">
+      <c r="U33">
+        <v>15763</v>
+      </c>
+      <c r="V33">
         <v>553491</v>
       </c>
-      <c r="U33">
-        <v>55660.2</v>
-      </c>
-      <c r="V33">
+      <c r="W33">
+        <v>55660200000</v>
+      </c>
+      <c r="X33">
+        <v>1831690</v>
+      </c>
+      <c r="Y33">
         <v>30387.34720394827</v>
       </c>
-      <c r="W33">
-        <v>1831690</v>
-      </c>
-      <c r="X33">
+      <c r="Z33">
         <v>450763500</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>434</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>2825</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>7774</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>-16308</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>1048737010</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>-572</v>
       </c>
-      <c r="AE33">
+      <c r="AG33">
+        <v>13068</v>
+      </c>
+      <c r="AH33">
         <v>596219</v>
       </c>
-      <c r="AF33">
-        <v>84862.60000000001</v>
-      </c>
-      <c r="AG33">
-        <v>41077.15065161874</v>
-      </c>
-      <c r="AH33">
-        <v>2065932</v>
-      </c>
       <c r="AI33">
+        <v>84862600000</v>
+      </c>
+      <c r="AJ33">
+        <v>2064898</v>
+      </c>
+      <c r="AK33">
+        <v>41097.72008108875</v>
+      </c>
+      <c r="AL33">
         <v>73774900</v>
       </c>
-      <c r="AJ33">
+      <c r="AM33">
         <v>427</v>
       </c>
-      <c r="AK33">
+      <c r="AN33">
         <v>2219</v>
       </c>
-      <c r="AL33">
+      <c r="AO33">
         <v>8791</v>
       </c>
-      <c r="AM33">
+      <c r="AP33">
         <v>12176</v>
       </c>
-      <c r="AN33">
+      <c r="AQ33">
         <v>1090649125</v>
       </c>
-      <c r="AO33">
+      <c r="AR33">
         <v>-48</v>
       </c>
-      <c r="AP33">
+      <c r="AS33">
+        <v>11656</v>
+      </c>
+      <c r="AT33">
         <v>626987</v>
       </c>
-      <c r="AQ33">
-        <v>90779.39999999999</v>
-      </c>
-      <c r="AR33">
+      <c r="AU33">
+        <v>90779400000</v>
+      </c>
+      <c r="AV33">
+        <v>2096056</v>
+      </c>
+      <c r="AW33">
         <v>43309.62531535417</v>
-      </c>
-      <c r="AS33">
-        <v>2096056</v>
       </c>
     </row>
     <row r="34">
@@ -5051,115 +5422,127 @@
         <v>9541</v>
       </c>
       <c r="I34">
+        <v>259596</v>
+      </c>
+      <c r="J34">
         <v>6594081</v>
       </c>
-      <c r="J34">
-        <v>613287</v>
-      </c>
       <c r="K34">
-        <v>33801.4545460558</v>
+        <v>613287000000</v>
       </c>
       <c r="L34">
-        <v>18143805</v>
+        <v>18588460</v>
       </c>
       <c r="M34">
+        <v>32992.88913659335</v>
+      </c>
+      <c r="N34">
         <v>13450000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>6349</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>27479</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>96287</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>5771</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>3669615164</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>10457</v>
       </c>
-      <c r="T34">
+      <c r="U34">
+        <v>307699</v>
+      </c>
+      <c r="V34">
         <v>7255853</v>
       </c>
-      <c r="U34">
-        <v>876285.2</v>
-      </c>
-      <c r="V34">
+      <c r="W34">
+        <v>876285200000</v>
+      </c>
+      <c r="X34">
+        <v>19082838</v>
+      </c>
+      <c r="Y34">
         <v>45920.06702566987</v>
       </c>
-      <c r="W34">
-        <v>19082838</v>
-      </c>
-      <c r="X34">
+      <c r="Z34">
         <v>23078000</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>7082</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>31600</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>123703</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>-69956</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>5798808915</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>-10067</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
+        <v>269358</v>
+      </c>
+      <c r="AH34">
         <v>7228632</v>
       </c>
-      <c r="AF34">
-        <v>1217748</v>
-      </c>
-      <c r="AG34">
-        <v>62795.49447581804</v>
-      </c>
-      <c r="AH34">
-        <v>19392283</v>
-      </c>
       <c r="AI34">
+        <v>1217748000000</v>
+      </c>
+      <c r="AJ34">
+        <v>19420354</v>
+      </c>
+      <c r="AK34">
+        <v>62704.7272155801</v>
+      </c>
+      <c r="AL34">
         <v>6230598100</v>
       </c>
-      <c r="AJ34">
+      <c r="AM34">
         <v>8464</v>
       </c>
-      <c r="AK34">
+      <c r="AN34">
         <v>32140</v>
       </c>
-      <c r="AL34">
+      <c r="AO34">
         <v>136396</v>
       </c>
-      <c r="AM34">
+      <c r="AP34">
         <v>146659</v>
       </c>
-      <c r="AN34">
+      <c r="AQ34">
         <v>6306006285</v>
       </c>
-      <c r="AO34">
+      <c r="AR34">
         <v>5494</v>
       </c>
-      <c r="AP34">
+      <c r="AS34">
+        <v>287247</v>
+      </c>
+      <c r="AT34">
         <v>7955728</v>
       </c>
-      <c r="AQ34">
-        <v>1498474.7</v>
-      </c>
-      <c r="AR34">
+      <c r="AU34">
+        <v>1498474700000</v>
+      </c>
+      <c r="AV34">
+        <v>20087023</v>
+      </c>
+      <c r="AW34">
         <v>74599.1429392001</v>
-      </c>
-      <c r="AS34">
-        <v>20087023</v>
       </c>
     </row>
     <row r="35">
@@ -5190,115 +5573,127 @@
         <v>941</v>
       </c>
       <c r="I35">
+        <v>58405</v>
+      </c>
+      <c r="J35">
         <v>3016583</v>
       </c>
-      <c r="J35">
-        <v>204229</v>
-      </c>
       <c r="K35">
-        <v>27947.25752080899</v>
+        <v>204229000000</v>
       </c>
       <c r="L35">
-        <v>7307658</v>
+        <v>7500670</v>
       </c>
       <c r="M35">
+        <v>27228.10095631457</v>
+      </c>
+      <c r="N35">
         <v>33260800</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1946</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>11852</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>34767</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>39616</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2511203000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3848</v>
       </c>
-      <c r="T35">
+      <c r="U35">
+        <v>81817</v>
+      </c>
+      <c r="V35">
         <v>3436619</v>
       </c>
-      <c r="U35">
-        <v>287317.1</v>
-      </c>
-      <c r="V35">
+      <c r="W35">
+        <v>287317100000</v>
+      </c>
+      <c r="X35">
+        <v>8210122</v>
+      </c>
+      <c r="Y35">
         <v>34995.472661673</v>
       </c>
-      <c r="W35">
-        <v>8210122</v>
-      </c>
-      <c r="X35">
+      <c r="Z35">
         <v>28577000</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>2636</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>13252</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>46826</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>-101195</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>3951476602</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>-3226</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
+        <v>74443</v>
+      </c>
+      <c r="AH35">
         <v>3220171</v>
       </c>
-      <c r="AF35">
-        <v>422282.2</v>
-      </c>
-      <c r="AG35">
-        <v>44164.58070954545</v>
-      </c>
-      <c r="AH35">
-        <v>9561558</v>
-      </c>
       <c r="AI35">
+        <v>422282200000</v>
+      </c>
+      <c r="AJ35">
+        <v>9571037</v>
+      </c>
+      <c r="AK35">
+        <v>44120.84082424924</v>
+      </c>
+      <c r="AL35">
         <v>675500300</v>
       </c>
-      <c r="AJ35">
+      <c r="AM35">
         <v>3354</v>
       </c>
-      <c r="AK35">
+      <c r="AN35">
         <v>10352</v>
       </c>
-      <c r="AL35">
+      <c r="AO35">
         <v>52889</v>
       </c>
-      <c r="AM35">
+      <c r="AP35">
         <v>113176</v>
       </c>
-      <c r="AN35">
+      <c r="AQ35">
         <v>3898937529</v>
       </c>
-      <c r="AO35">
+      <c r="AR35">
         <v>-552</v>
       </c>
-      <c r="AP35">
+      <c r="AS35">
+        <v>80372</v>
+      </c>
+      <c r="AT35">
         <v>3557965</v>
       </c>
-      <c r="AQ35">
-        <v>508672.4</v>
-      </c>
-      <c r="AR35">
+      <c r="AU35">
+        <v>508672400000</v>
+      </c>
+      <c r="AV35">
+        <v>9962464</v>
+      </c>
+      <c r="AW35">
         <v>51058.89466702213</v>
-      </c>
-      <c r="AS35">
-        <v>9962464</v>
       </c>
     </row>
     <row r="36">
@@ -5329,115 +5724,127 @@
         <v>239</v>
       </c>
       <c r="I36">
+        <v>6195</v>
+      </c>
+      <c r="J36">
         <v>232042</v>
       </c>
-      <c r="J36">
-        <v>15701</v>
-      </c>
       <c r="K36">
-        <v>24423.74521278416</v>
+        <v>15701000000</v>
       </c>
       <c r="L36">
-        <v>642858</v>
+        <v>650382</v>
       </c>
       <c r="M36">
+        <v>24141.19701959771</v>
+      </c>
+      <c r="N36">
         <v>1892701000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>97</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>1028</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>4688</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1856</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>185659323</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>682</v>
       </c>
-      <c r="T36">
+      <c r="U36">
+        <v>8250</v>
+      </c>
+      <c r="V36">
         <v>257432</v>
       </c>
-      <c r="U36">
-        <v>18976.9</v>
-      </c>
-      <c r="V36">
+      <c r="W36">
+        <v>18976900000</v>
+      </c>
+      <c r="X36">
+        <v>639062</v>
+      </c>
+      <c r="Y36">
         <v>29694.92787867218</v>
       </c>
-      <c r="W36">
-        <v>639062</v>
-      </c>
-      <c r="X36">
+      <c r="Z36">
         <v>1338924200</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>107</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>837</v>
       </c>
-      <c r="AA36">
+      <c r="AC36">
         <v>5727</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>2742</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>311677000</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>-331</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
+        <v>7289</v>
+      </c>
+      <c r="AH36">
         <v>296315</v>
       </c>
-      <c r="AF36">
-        <v>35651.8</v>
-      </c>
-      <c r="AG36">
-        <v>52856.71290839571</v>
-      </c>
-      <c r="AH36">
-        <v>674499</v>
-      </c>
       <c r="AI36">
+        <v>35651800000</v>
+      </c>
+      <c r="AJ36">
+        <v>675097</v>
+      </c>
+      <c r="AK36">
+        <v>52809.89250433641</v>
+      </c>
+      <c r="AL36">
         <v>50000</v>
       </c>
-      <c r="AJ36">
+      <c r="AM36">
         <v>118</v>
       </c>
-      <c r="AK36">
+      <c r="AN36">
         <v>1253</v>
       </c>
-      <c r="AL36">
+      <c r="AO36">
         <v>6291</v>
       </c>
-      <c r="AM36">
+      <c r="AP36">
         <v>5540</v>
       </c>
-      <c r="AN36">
+      <c r="AQ36">
         <v>409693640</v>
       </c>
-      <c r="AO36">
+      <c r="AR36">
         <v>57</v>
       </c>
-      <c r="AP36">
+      <c r="AS36">
+        <v>7055</v>
+      </c>
+      <c r="AT36">
         <v>365046</v>
       </c>
-      <c r="AQ36">
-        <v>56952.2</v>
-      </c>
-      <c r="AR36">
+      <c r="AU36">
+        <v>56952200000</v>
+      </c>
+      <c r="AV36">
+        <v>762814</v>
+      </c>
+      <c r="AW36">
         <v>74660.66432970554</v>
-      </c>
-      <c r="AS36">
-        <v>762814</v>
       </c>
     </row>
     <row r="37">
@@ -5468,115 +5875,127 @@
         <v>4222</v>
       </c>
       <c r="I37">
+        <v>103230</v>
+      </c>
+      <c r="J37">
         <v>4526774</v>
       </c>
-      <c r="J37">
-        <v>304353</v>
-      </c>
       <c r="K37">
-        <v>27205.87551729538</v>
+        <v>304353000000</v>
       </c>
       <c r="L37">
-        <v>11187032</v>
+        <v>11242827</v>
       </c>
       <c r="M37">
+        <v>27070.86038057866</v>
+      </c>
+      <c r="N37">
         <v>211254600</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3274</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>13595</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>50856</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-106987</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2259972014</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1372</v>
       </c>
-      <c r="T37">
+      <c r="U37">
+        <v>115124</v>
+      </c>
+      <c r="V37">
         <v>4884555</v>
       </c>
-      <c r="U37">
-        <v>395864.2</v>
-      </c>
-      <c r="V37">
+      <c r="W37">
+        <v>395864200000</v>
+      </c>
+      <c r="X37">
+        <v>11387404</v>
+      </c>
+      <c r="Y37">
         <v>34763.34026613968</v>
       </c>
-      <c r="W37">
-        <v>11387404</v>
-      </c>
-      <c r="X37">
+      <c r="Z37">
         <v>156810000</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>3230</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>12571</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <v>61085</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>-111345</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>2427238442</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>-4497</v>
       </c>
-      <c r="AE37">
+      <c r="AG37">
+        <v>90221</v>
+      </c>
+      <c r="AH37">
         <v>4346047</v>
       </c>
-      <c r="AF37">
-        <v>500274.2</v>
-      </c>
-      <c r="AG37">
-        <v>43365.66465404238</v>
-      </c>
-      <c r="AH37">
-        <v>11536182</v>
-      </c>
       <c r="AI37">
+        <v>500274200000</v>
+      </c>
+      <c r="AJ37">
+        <v>11541932</v>
+      </c>
+      <c r="AK37">
+        <v>43344.06059574775</v>
+      </c>
+      <c r="AL37">
         <v>262718900</v>
       </c>
-      <c r="AJ37">
+      <c r="AM37">
         <v>3590</v>
       </c>
-      <c r="AK37">
+      <c r="AN37">
         <v>10567</v>
       </c>
-      <c r="AL37">
+      <c r="AO37">
         <v>69635</v>
       </c>
-      <c r="AM37">
+      <c r="AP37">
         <v>70090</v>
       </c>
-      <c r="AN37">
+      <c r="AQ37">
         <v>2308021643</v>
       </c>
-      <c r="AO37">
+      <c r="AR37">
         <v>-456</v>
       </c>
-      <c r="AP37">
+      <c r="AS37">
+        <v>86983</v>
+      </c>
+      <c r="AT37">
         <v>4683156</v>
       </c>
-      <c r="AQ37">
-        <v>615275.5</v>
-      </c>
-      <c r="AR37">
+      <c r="AU37">
+        <v>615275500000</v>
+      </c>
+      <c r="AV37">
+        <v>11674622</v>
+      </c>
+      <c r="AW37">
         <v>52701.96328412175</v>
-      </c>
-      <c r="AS37">
-        <v>11674622</v>
       </c>
     </row>
     <row r="38">
@@ -5607,115 +6026,127 @@
         <v>1831</v>
       </c>
       <c r="I38">
+        <v>25039</v>
+      </c>
+      <c r="J38">
         <v>1053257</v>
       </c>
-      <c r="J38">
-        <v>72767</v>
-      </c>
       <c r="K38">
-        <v>22120.08995529594</v>
+        <v>72767000000</v>
       </c>
       <c r="L38">
-        <v>3289634</v>
+        <v>3340129</v>
       </c>
       <c r="M38">
+        <v>21785.68552292441</v>
+      </c>
+      <c r="N38">
         <v>25300000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>576</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>5165</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>15932</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>5629</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>864480903</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2407</v>
       </c>
-      <c r="T38">
+      <c r="U38">
+        <v>36870</v>
+      </c>
+      <c r="V38">
         <v>1207698</v>
       </c>
-      <c r="U38">
-        <v>97505.3</v>
-      </c>
-      <c r="V38">
+      <c r="W38">
+        <v>97505300000</v>
+      </c>
+      <c r="X38">
+        <v>3467100</v>
+      </c>
+      <c r="Y38">
         <v>28123.01346947016</v>
       </c>
-      <c r="W38">
-        <v>3467100</v>
-      </c>
-      <c r="X38">
+      <c r="Z38">
         <v>13000000</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>516</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>5003</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>19535</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>-45939</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>1231263818</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>-457</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
+        <v>29699</v>
+      </c>
+      <c r="AH38">
         <v>1237213</v>
       </c>
-      <c r="AF38">
-        <v>155267.5</v>
-      </c>
-      <c r="AG38">
-        <v>41275.8639573257</v>
-      </c>
-      <c r="AH38">
-        <v>3761702</v>
-      </c>
       <c r="AI38">
+        <v>155267500000</v>
+      </c>
+      <c r="AJ38">
+        <v>3759558</v>
+      </c>
+      <c r="AK38">
+        <v>41299.40274894017</v>
+      </c>
+      <c r="AL38">
         <v>29758000</v>
       </c>
-      <c r="AJ38">
+      <c r="AM38">
         <v>532</v>
       </c>
-      <c r="AK38">
+      <c r="AN38">
         <v>4779</v>
       </c>
-      <c r="AL38">
+      <c r="AO38">
         <v>20730</v>
       </c>
-      <c r="AM38">
+      <c r="AP38">
         <v>12242</v>
       </c>
-      <c r="AN38">
+      <c r="AQ38">
         <v>1098007009</v>
       </c>
-      <c r="AO38">
+      <c r="AR38">
         <v>267</v>
       </c>
-      <c r="AP38">
+      <c r="AS38">
+        <v>30374</v>
+      </c>
+      <c r="AT38">
         <v>1367359</v>
       </c>
-      <c r="AQ38">
-        <v>187364.7</v>
-      </c>
-      <c r="AR38">
+      <c r="AU38">
+        <v>187364700000</v>
+      </c>
+      <c r="AV38">
+        <v>3900900</v>
+      </c>
+      <c r="AW38">
         <v>48031.14665846343</v>
-      </c>
-      <c r="AS38">
-        <v>3900900</v>
       </c>
     </row>
     <row r="39">
@@ -5746,115 +6177,127 @@
         <v>894</v>
       </c>
       <c r="I39">
+        <v>27398</v>
+      </c>
+      <c r="J39">
         <v>1213470</v>
       </c>
-      <c r="J39">
-        <v>86967</v>
-      </c>
       <c r="K39">
-        <v>27218.97713583386</v>
+        <v>86967000000</v>
       </c>
       <c r="L39">
-        <v>3195087</v>
+        <v>3247111</v>
       </c>
       <c r="M39">
+        <v>26782.88484748443</v>
+      </c>
+      <c r="N39">
         <v>204924000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1259</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>6292</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>13887</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>12276</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>742863017</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3237</v>
       </c>
-      <c r="T39">
+      <c r="U39">
+        <v>37968</v>
+      </c>
+      <c r="V39">
         <v>1358475</v>
       </c>
-      <c r="U39">
-        <v>117002.4</v>
-      </c>
-      <c r="V39">
+      <c r="W39">
+        <v>117002400000</v>
+      </c>
+      <c r="X39">
+        <v>3467937</v>
+      </c>
+      <c r="Y39">
         <v>33738.32915649852</v>
       </c>
-      <c r="W39">
-        <v>3467937</v>
-      </c>
-      <c r="X39">
+      <c r="Z39">
         <v>173536400</v>
       </c>
-      <c r="Y39">
+      <c r="AA39">
         <v>2040</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>6613</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <v>18873</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>-28243</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>862862215</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>-1866</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
+        <v>33896</v>
+      </c>
+      <c r="AH39">
         <v>1324546</v>
       </c>
-      <c r="AF39">
-        <v>163150.5</v>
-      </c>
-      <c r="AG39">
-        <v>42498.65262882601</v>
-      </c>
-      <c r="AH39">
-        <v>3838957</v>
-      </c>
       <c r="AI39">
+        <v>163150500000</v>
+      </c>
+      <c r="AJ39">
+        <v>3837609</v>
+      </c>
+      <c r="AK39">
+        <v>42513.58072174627</v>
+      </c>
+      <c r="AL39">
         <v>226470100</v>
       </c>
-      <c r="AJ39">
+      <c r="AM39">
         <v>2366</v>
       </c>
-      <c r="AK39">
+      <c r="AN39">
         <v>5234</v>
       </c>
-      <c r="AL39">
+      <c r="AO39">
         <v>22656</v>
       </c>
-      <c r="AM39">
+      <c r="AP39">
         <v>58859</v>
       </c>
-      <c r="AN39">
+      <c r="AQ39">
         <v>824939818</v>
       </c>
-      <c r="AO39">
+      <c r="AR39">
         <v>-378</v>
       </c>
-      <c r="AP39">
+      <c r="AS39">
+        <v>36792</v>
+      </c>
+      <c r="AT39">
         <v>1494276</v>
       </c>
-      <c r="AQ39">
-        <v>200592.6</v>
-      </c>
-      <c r="AR39">
+      <c r="AU39">
+        <v>200592600000</v>
+      </c>
+      <c r="AV39">
+        <v>4018453</v>
+      </c>
+      <c r="AW39">
         <v>49917.86640281721</v>
-      </c>
-      <c r="AS39">
-        <v>4018453</v>
       </c>
     </row>
     <row r="40">
@@ -5885,115 +6328,127 @@
         <v>3888</v>
       </c>
       <c r="I40">
+        <v>111075</v>
+      </c>
+      <c r="J40">
         <v>4644685</v>
       </c>
-      <c r="J40">
-        <v>328540</v>
-      </c>
       <c r="K40">
-        <v>27291.89081781637</v>
+        <v>328540000000</v>
       </c>
       <c r="L40">
-        <v>12038008</v>
+        <v>12220464</v>
       </c>
       <c r="M40">
+        <v>26884.41289954293</v>
+      </c>
+      <c r="N40">
         <v>928025600</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>3534</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>14533</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>66514</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-365</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2094537000</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>4187</v>
       </c>
-      <c r="T40">
+      <c r="U40">
+        <v>142171</v>
+      </c>
+      <c r="V40">
         <v>5063652</v>
       </c>
-      <c r="U40">
-        <v>428463.7</v>
-      </c>
-      <c r="V40">
+      <c r="W40">
+        <v>428463700000</v>
+      </c>
+      <c r="X40">
+        <v>12298970</v>
+      </c>
+      <c r="Y40">
         <v>34837.36442970428</v>
       </c>
-      <c r="W40">
-        <v>12298970</v>
-      </c>
-      <c r="X40">
+      <c r="Z40">
         <v>508438200</v>
       </c>
-      <c r="Y40">
+      <c r="AA40">
         <v>3350</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>14330</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <v>87162</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>-71009</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>2080085258</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>-7828</v>
       </c>
-      <c r="AE40">
+      <c r="AG40">
+        <v>116271</v>
+      </c>
+      <c r="AH40">
         <v>4959360</v>
       </c>
-      <c r="AF40">
-        <v>604629.6</v>
-      </c>
-      <c r="AG40">
-        <v>47572.55718695194</v>
-      </c>
-      <c r="AH40">
-        <v>12709630</v>
-      </c>
       <c r="AI40">
+        <v>604629600000</v>
+      </c>
+      <c r="AJ40">
+        <v>12716596</v>
+      </c>
+      <c r="AK40">
+        <v>47546.49750609361</v>
+      </c>
+      <c r="AL40">
         <v>638164200</v>
       </c>
-      <c r="AJ40">
+      <c r="AM40">
         <v>3825</v>
       </c>
-      <c r="AK40">
+      <c r="AN40">
         <v>13061</v>
       </c>
-      <c r="AL40">
+      <c r="AO40">
         <v>93050</v>
       </c>
-      <c r="AM40">
+      <c r="AP40">
         <v>55930</v>
       </c>
-      <c r="AN40">
+      <c r="AQ40">
         <v>1773994489</v>
       </c>
-      <c r="AO40">
+      <c r="AR40">
         <v>-4169</v>
       </c>
-      <c r="AP40">
+      <c r="AS40">
+        <v>113822</v>
+      </c>
+      <c r="AT40">
         <v>5290982</v>
       </c>
-      <c r="AQ40">
-        <v>716534.3</v>
-      </c>
-      <c r="AR40">
+      <c r="AU40">
+        <v>716534300000</v>
+      </c>
+      <c r="AV40">
+        <v>12899169</v>
+      </c>
+      <c r="AW40">
         <v>55548.87295452908</v>
-      </c>
-      <c r="AS40">
-        <v>12899169</v>
       </c>
     </row>
     <row r="41">
@@ -6024,115 +6479,127 @@
         <v>682</v>
       </c>
       <c r="I41">
+        <v>10345</v>
+      </c>
+      <c r="J41">
         <v>369688</v>
       </c>
-      <c r="J41">
-        <v>25629</v>
-      </c>
       <c r="K41">
-        <v>25944.01219608486</v>
+        <v>25629000000</v>
       </c>
       <c r="L41">
-        <v>987858</v>
+        <v>1020893</v>
       </c>
       <c r="M41">
+        <v>25104.49185174156</v>
+      </c>
+      <c r="N41">
         <v>110681600</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>287</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1519</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>8283</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>-3728</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>169006383</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>-363</v>
       </c>
-      <c r="T41">
+      <c r="U41">
+        <v>10947</v>
+      </c>
+      <c r="V41">
         <v>413331</v>
       </c>
-      <c r="U41">
-        <v>35940.1</v>
-      </c>
-      <c r="V41">
+      <c r="W41">
+        <v>35940100000</v>
+      </c>
+      <c r="X41">
+        <v>1057142</v>
+      </c>
+      <c r="Y41">
         <v>33997.41945736713</v>
       </c>
-      <c r="W41">
-        <v>1057142</v>
-      </c>
-      <c r="X41">
+      <c r="Z41">
         <v>64807100</v>
       </c>
-      <c r="Y41">
+      <c r="AA41">
         <v>276</v>
       </c>
-      <c r="Z41">
+      <c r="AB41">
         <v>1650</v>
       </c>
-      <c r="AA41">
+      <c r="AC41">
         <v>10647</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>-14243</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <v>160619897</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>-457</v>
       </c>
-      <c r="AE41">
+      <c r="AG41">
+        <v>7183</v>
+      </c>
+      <c r="AH41">
         <v>397581</v>
       </c>
-      <c r="AF41">
-        <v>49409.1</v>
-      </c>
-      <c r="AG41">
-        <v>46927.30267094443</v>
-      </c>
-      <c r="AH41">
-        <v>1052886</v>
-      </c>
       <c r="AI41">
+        <v>49409100000</v>
+      </c>
+      <c r="AJ41">
+        <v>1054975</v>
+      </c>
+      <c r="AK41">
+        <v>46834.37996161047</v>
+      </c>
+      <c r="AL41">
         <v>16262900</v>
       </c>
-      <c r="AJ41">
+      <c r="AM41">
         <v>324</v>
       </c>
-      <c r="AK41">
+      <c r="AN41">
         <v>1278</v>
       </c>
-      <c r="AL41">
+      <c r="AO41">
         <v>11730</v>
       </c>
-      <c r="AM41">
+      <c r="AP41">
         <v>6044</v>
       </c>
-      <c r="AN41">
+      <c r="AQ41">
         <v>172470788</v>
       </c>
-      <c r="AO41">
+      <c r="AR41">
         <v>-544</v>
       </c>
-      <c r="AP41">
+      <c r="AS41">
+        <v>6878</v>
+      </c>
+      <c r="AT41">
         <v>423667</v>
       </c>
-      <c r="AQ41">
-        <v>56604</v>
-      </c>
-      <c r="AR41">
+      <c r="AU41">
+        <v>56604000000</v>
+      </c>
+      <c r="AV41">
+        <v>1077555</v>
+      </c>
+      <c r="AW41">
         <v>52530.03326976349</v>
-      </c>
-      <c r="AS41">
-        <v>1077555</v>
       </c>
     </row>
     <row r="42">
@@ -6163,115 +6630,127 @@
         <v>218</v>
       </c>
       <c r="I42">
+        <v>23027</v>
+      </c>
+      <c r="J42">
         <v>1421207</v>
       </c>
-      <c r="J42">
-        <v>89476</v>
-      </c>
       <c r="K42">
-        <v>23930.62909771504</v>
+        <v>89476000000</v>
       </c>
       <c r="L42">
-        <v>3738974</v>
+        <v>3796200</v>
       </c>
       <c r="M42">
+        <v>23569.88567514883</v>
+      </c>
+      <c r="N42">
         <v>97141300</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>565</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>6029</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>16316</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>-14421</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>899872138</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>-8</v>
       </c>
-      <c r="T42">
+      <c r="U42">
+        <v>30602</v>
+      </c>
+      <c r="V42">
         <v>1599314</v>
       </c>
-      <c r="U42">
-        <v>119355.2</v>
-      </c>
-      <c r="V42">
+      <c r="W42">
+        <v>119355200000</v>
+      </c>
+      <c r="X42">
+        <v>4064995</v>
+      </c>
+      <c r="Y42">
         <v>29361.70893199131</v>
       </c>
-      <c r="W42">
-        <v>4064995</v>
-      </c>
-      <c r="X42">
+      <c r="Z42">
         <v>20715000</v>
       </c>
-      <c r="Y42">
+      <c r="AA42">
         <v>517</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <v>6438</v>
       </c>
-      <c r="AA42">
+      <c r="AC42">
         <v>21905</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <v>-47161</v>
       </c>
-      <c r="AC42">
+      <c r="AE42">
         <v>1089231538</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>-1983</v>
       </c>
-      <c r="AE42">
+      <c r="AG42">
+        <v>32532</v>
+      </c>
+      <c r="AH42">
         <v>1506472</v>
       </c>
-      <c r="AF42">
-        <v>166767.4</v>
-      </c>
-      <c r="AG42">
-        <v>35969.83982096114</v>
-      </c>
-      <c r="AH42">
-        <v>4636312</v>
-      </c>
       <c r="AI42">
+        <v>166767400000</v>
+      </c>
+      <c r="AJ42">
+        <v>4633669</v>
+      </c>
+      <c r="AK42">
+        <v>35990.35666984414</v>
+      </c>
+      <c r="AL42">
         <v>53693100</v>
       </c>
-      <c r="AJ42">
+      <c r="AM42">
         <v>950</v>
       </c>
-      <c r="AK42">
+      <c r="AN42">
         <v>4948</v>
       </c>
-      <c r="AL42">
+      <c r="AO42">
         <v>24823</v>
       </c>
-      <c r="AM42">
+      <c r="AP42">
         <v>49952</v>
       </c>
-      <c r="AN42">
+      <c r="AQ42">
         <v>1035752670</v>
       </c>
-      <c r="AO42">
+      <c r="AR42">
         <v>860</v>
       </c>
-      <c r="AP42">
+      <c r="AS42">
+        <v>33880</v>
+      </c>
+      <c r="AT42">
         <v>1664920</v>
       </c>
-      <c r="AQ42">
-        <v>207510</v>
-      </c>
-      <c r="AR42">
+      <c r="AU42">
+        <v>207510000000</v>
+      </c>
+      <c r="AV42">
+        <v>4850136</v>
+      </c>
+      <c r="AW42">
         <v>42784.36728372153</v>
-      </c>
-      <c r="AS42">
-        <v>4850136</v>
       </c>
     </row>
     <row r="43">
@@ -6280,9 +6759,6 @@
           <t>South Dakota</t>
         </is>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
       <c r="C43">
         <v>43</v>
       </c>
@@ -6302,115 +6778,124 @@
         <v>-711</v>
       </c>
       <c r="I43">
+        <v>5932</v>
+      </c>
+      <c r="J43">
         <v>274772</v>
       </c>
-      <c r="J43">
-        <v>20289</v>
-      </c>
       <c r="K43">
-        <v>27766.56324971021</v>
+        <v>20289000000</v>
       </c>
       <c r="L43">
-        <v>730699</v>
+        <v>742213</v>
       </c>
       <c r="M43">
+        <v>27335.81869355562</v>
+      </c>
+      <c r="N43">
         <v>500000</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>76</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>1277</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>4223</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>5251</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>136041582</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>59</v>
       </c>
-      <c r="T43">
+      <c r="U43">
+        <v>8383</v>
+      </c>
+      <c r="V43">
         <v>313834</v>
       </c>
-      <c r="U43">
-        <v>23626.9</v>
-      </c>
-      <c r="V43">
+      <c r="W43">
+        <v>23626900000</v>
+      </c>
+      <c r="X43">
+        <v>757972</v>
+      </c>
+      <c r="Y43">
         <v>31171.20421334825</v>
       </c>
-      <c r="W43">
-        <v>757972</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
+      <c r="AA43">
         <v>70</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <v>1203</v>
       </c>
-      <c r="AA43">
+      <c r="AC43">
         <v>4976</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <v>-1633</v>
       </c>
-      <c r="AC43">
+      <c r="AE43">
         <v>198653313</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
         <v>201</v>
       </c>
-      <c r="AE43">
+      <c r="AG43">
+        <v>7544</v>
+      </c>
+      <c r="AH43">
         <v>329649</v>
       </c>
-      <c r="AF43">
-        <v>38208.2</v>
-      </c>
-      <c r="AG43">
-        <v>46797.22167446657</v>
-      </c>
-      <c r="AH43">
-        <v>816463</v>
-      </c>
       <c r="AI43">
+        <v>38208200000</v>
+      </c>
+      <c r="AJ43">
+        <v>816068</v>
+      </c>
+      <c r="AK43">
+        <v>46819.87285373278</v>
+      </c>
+      <c r="AL43">
         <v>7052000</v>
       </c>
-      <c r="AJ43">
+      <c r="AM43">
         <v>113</v>
       </c>
-      <c r="AK43">
+      <c r="AN43">
         <v>1167</v>
       </c>
-      <c r="AL43">
+      <c r="AO43">
         <v>5638</v>
       </c>
-      <c r="AM43">
+      <c r="AP43">
         <v>5811</v>
       </c>
-      <c r="AN43">
+      <c r="AQ43">
         <v>218280386</v>
       </c>
-      <c r="AO43">
+      <c r="AR43">
         <v>29</v>
       </c>
-      <c r="AP43">
+      <c r="AS43">
+        <v>6967</v>
+      </c>
+      <c r="AT43">
         <v>352794</v>
       </c>
-      <c r="AQ43">
-        <v>48678.9</v>
-      </c>
-      <c r="AR43">
+      <c r="AU43">
+        <v>48678900000</v>
+      </c>
+      <c r="AV43">
+        <v>852029</v>
+      </c>
+      <c r="AW43">
         <v>57132.91448999976</v>
-      </c>
-      <c r="AS43">
-        <v>852029</v>
       </c>
     </row>
     <row r="44">
@@ -6441,115 +6926,127 @@
         <v>1724</v>
       </c>
       <c r="I44">
+        <v>41122</v>
+      </c>
+      <c r="J44">
         <v>2151153</v>
       </c>
-      <c r="J44">
-        <v>140750</v>
-      </c>
       <c r="K44">
-        <v>26488.75258394723</v>
+        <v>140750000000</v>
       </c>
       <c r="L44">
-        <v>5313576</v>
+        <v>5416643</v>
       </c>
       <c r="M44">
+        <v>25984.7289178925</v>
+      </c>
+      <c r="N44">
         <v>189195900</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>813</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>7955</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>22823</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>-32594</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>1045546400</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2504</v>
       </c>
-      <c r="T44">
+      <c r="U44">
+        <v>54014</v>
+      </c>
+      <c r="V44">
         <v>2351834</v>
       </c>
-      <c r="U44">
-        <v>185917.2</v>
-      </c>
-      <c r="V44">
+      <c r="W44">
+        <v>185917200000</v>
+      </c>
+      <c r="X44">
+        <v>5750789</v>
+      </c>
+      <c r="Y44">
         <v>32328.98998728696</v>
       </c>
-      <c r="W44">
-        <v>5750789</v>
-      </c>
-      <c r="X44">
+      <c r="Z44">
         <v>52058700</v>
       </c>
-      <c r="Y44">
+      <c r="AA44">
         <v>925</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <v>7674</v>
       </c>
-      <c r="AA44">
+      <c r="AC44">
         <v>29857</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <v>-50060</v>
       </c>
-      <c r="AC44">
+      <c r="AE44">
         <v>1655904400</v>
       </c>
-      <c r="AD44">
+      <c r="AF44">
         <v>-1858</v>
       </c>
-      <c r="AE44">
+      <c r="AG44">
+        <v>47452</v>
+      </c>
+      <c r="AH44">
         <v>2276797</v>
       </c>
-      <c r="AF44">
-        <v>258657.6</v>
-      </c>
-      <c r="AG44">
-        <v>40689.28598339725</v>
-      </c>
-      <c r="AH44">
-        <v>6356897</v>
-      </c>
       <c r="AI44">
+        <v>258657600000</v>
+      </c>
+      <c r="AJ44">
+        <v>6356388</v>
+      </c>
+      <c r="AK44">
+        <v>40692.54425626629</v>
+      </c>
+      <c r="AL44">
         <v>193817900</v>
       </c>
-      <c r="AJ44">
+      <c r="AM44">
         <v>1009</v>
       </c>
-      <c r="AK44">
+      <c r="AN44">
         <v>6314</v>
       </c>
-      <c r="AL44">
+      <c r="AO44">
         <v>34197</v>
       </c>
-      <c r="AM44">
+      <c r="AP44">
         <v>56722</v>
       </c>
-      <c r="AN44">
+      <c r="AQ44">
         <v>1579203336</v>
       </c>
-      <c r="AO44">
+      <c r="AR44">
         <v>34</v>
       </c>
-      <c r="AP44">
+      <c r="AS44">
+        <v>47967</v>
+      </c>
+      <c r="AT44">
         <v>2512246</v>
       </c>
-      <c r="AQ44">
-        <v>326382.5</v>
-      </c>
-      <c r="AR44">
+      <c r="AU44">
+        <v>326382500000</v>
+      </c>
+      <c r="AV44">
+        <v>6613679</v>
+      </c>
+      <c r="AW44">
         <v>49349.61312757998</v>
-      </c>
-      <c r="AS44">
-        <v>6613679</v>
       </c>
     </row>
     <row r="45">
@@ -6580,115 +7077,127 @@
         <v>11164</v>
       </c>
       <c r="I45">
+        <v>199114</v>
+      </c>
+      <c r="J45">
         <v>6811203</v>
       </c>
-      <c r="J45">
-        <v>551830</v>
-      </c>
       <c r="K45">
-        <v>29034.14878482014</v>
+        <v>551830000000</v>
       </c>
       <c r="L45">
-        <v>19006240</v>
+        <v>19340342</v>
       </c>
       <c r="M45">
+        <v>28532.58747958025</v>
+      </c>
+      <c r="N45">
         <v>2785889800</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>6371</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>29112</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>76074</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>89293</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>5200369826</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>21670</v>
       </c>
-      <c r="T45">
+      <c r="U45">
+        <v>282047</v>
+      </c>
+      <c r="V45">
         <v>8130676</v>
       </c>
-      <c r="U45">
-        <v>780206.2</v>
-      </c>
-      <c r="V45">
+      <c r="W45">
+        <v>780206200000</v>
+      </c>
+      <c r="X45">
+        <v>21319622</v>
+      </c>
+      <c r="Y45">
         <v>36595.68635879191</v>
       </c>
-      <c r="W45">
-        <v>21319622</v>
-      </c>
-      <c r="X45">
+      <c r="Z45">
         <v>890640200</v>
       </c>
-      <c r="Y45">
+      <c r="AA45">
         <v>7545</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <v>30115</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <v>104657</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>-116983</v>
       </c>
-      <c r="AC45">
+      <c r="AE45">
         <v>8106870873</v>
       </c>
-      <c r="AD45">
+      <c r="AF45">
         <v>-9200</v>
       </c>
-      <c r="AE45">
+      <c r="AG45">
+        <v>228088</v>
+      </c>
+      <c r="AH45">
         <v>8771776</v>
       </c>
-      <c r="AF45">
-        <v>1255660.8</v>
-      </c>
-      <c r="AG45">
-        <v>49715.13372430437</v>
-      </c>
-      <c r="AH45">
-        <v>25257114</v>
-      </c>
       <c r="AI45">
+        <v>1255660800000</v>
+      </c>
+      <c r="AJ45">
+        <v>25238386</v>
+      </c>
+      <c r="AK45">
+        <v>49752.02455497748</v>
+      </c>
+      <c r="AL45">
         <v>1170788400</v>
       </c>
-      <c r="AJ45">
+      <c r="AM45">
         <v>9934</v>
       </c>
-      <c r="AK45">
+      <c r="AN45">
         <v>29189</v>
       </c>
-      <c r="AL45">
+      <c r="AO45">
         <v>122165</v>
       </c>
-      <c r="AM45">
+      <c r="AP45">
         <v>315339</v>
       </c>
-      <c r="AN45">
+      <c r="AQ45">
         <v>8281728828</v>
       </c>
-      <c r="AO45">
+      <c r="AR45">
         <v>3637</v>
       </c>
-      <c r="AP45">
+      <c r="AS45">
+        <v>244628</v>
+      </c>
+      <c r="AT45">
         <v>10258601</v>
       </c>
-      <c r="AQ45">
-        <v>1585985.9</v>
-      </c>
-      <c r="AR45">
+      <c r="AU45">
+        <v>1585985900000</v>
+      </c>
+      <c r="AV45">
+        <v>27394564</v>
+      </c>
+      <c r="AW45">
         <v>57894.18294812066</v>
-      </c>
-      <c r="AS45">
-        <v>27394564</v>
       </c>
     </row>
     <row r="46">
@@ -6719,115 +7228,127 @@
         <v>1626</v>
       </c>
       <c r="I46">
+        <v>22803</v>
+      </c>
+      <c r="J46">
         <v>771894</v>
       </c>
-      <c r="J46">
-        <v>50352</v>
-      </c>
       <c r="K46">
-        <v>24898.96170261584</v>
+        <v>50352000000</v>
       </c>
       <c r="L46">
-        <v>2022253</v>
+        <v>2067976</v>
       </c>
       <c r="M46">
+        <v>24348.44504965242</v>
+      </c>
+      <c r="N46">
         <v>210962600</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>715</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>3623</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>17091</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>-3367</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>554027666</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1691</v>
       </c>
-      <c r="T46">
+      <c r="U46">
+        <v>31718</v>
+      </c>
+      <c r="V46">
         <v>910546</v>
       </c>
-      <c r="U46">
-        <v>73042.5</v>
-      </c>
-      <c r="V46">
+      <c r="W46">
+        <v>73042500000</v>
+      </c>
+      <c r="X46">
+        <v>2283715</v>
+      </c>
+      <c r="Y46">
         <v>31984.06981606724</v>
       </c>
-      <c r="W46">
-        <v>2283715</v>
-      </c>
-      <c r="X46">
+      <c r="Z46">
         <v>143010900</v>
       </c>
-      <c r="Y46">
+      <c r="AA46">
         <v>1017</v>
       </c>
-      <c r="Z46">
+      <c r="AB46">
         <v>5073</v>
       </c>
-      <c r="AA46">
+      <c r="AC46">
         <v>21931</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>-39506</v>
       </c>
-      <c r="AC46">
+      <c r="AE46">
         <v>745139400</v>
       </c>
-      <c r="AD46">
+      <c r="AF46">
         <v>-840</v>
       </c>
-      <c r="AE46">
+      <c r="AG46">
+        <v>33256</v>
+      </c>
+      <c r="AH46">
         <v>1003573</v>
       </c>
-      <c r="AF46">
-        <v>118296.3</v>
-      </c>
-      <c r="AG46">
-        <v>42606.74259284004</v>
-      </c>
-      <c r="AH46">
-        <v>2776469</v>
-      </c>
       <c r="AI46">
+        <v>118296300000</v>
+      </c>
+      <c r="AJ46">
+        <v>2776212</v>
+      </c>
+      <c r="AK46">
+        <v>42610.68679193088</v>
+      </c>
+      <c r="AL46">
         <v>719517800</v>
       </c>
-      <c r="AJ46">
+      <c r="AM46">
         <v>1404</v>
       </c>
-      <c r="AK46">
+      <c r="AN46">
         <v>3999</v>
       </c>
-      <c r="AL46">
+      <c r="AO46">
         <v>32160</v>
       </c>
-      <c r="AM46">
+      <c r="AP46">
         <v>54024</v>
       </c>
-      <c r="AN46">
+      <c r="AQ46">
         <v>887761300</v>
       </c>
-      <c r="AO46">
+      <c r="AR46">
         <v>3062</v>
       </c>
-      <c r="AP46">
+      <c r="AS46">
+        <v>46071</v>
+      </c>
+      <c r="AT46">
         <v>1198540</v>
       </c>
-      <c r="AQ46">
-        <v>149762.1</v>
-      </c>
-      <c r="AR46">
+      <c r="AU46">
+        <v>149762100000</v>
+      </c>
+      <c r="AV46">
+        <v>3000449</v>
+      </c>
+      <c r="AW46">
         <v>49913.22965329522</v>
-      </c>
-      <c r="AS46">
-        <v>3000449</v>
       </c>
     </row>
     <row r="47">
@@ -6858,115 +7379,127 @@
         <v>384</v>
       </c>
       <c r="I47">
+        <v>6300</v>
+      </c>
+      <c r="J47">
         <v>220626</v>
       </c>
-      <c r="J47">
-        <v>14611</v>
-      </c>
       <c r="K47">
-        <v>24918.479002374</v>
+        <v>14611000000</v>
       </c>
       <c r="L47">
-        <v>586352</v>
+        <v>593701</v>
       </c>
       <c r="M47">
+        <v>24610.03097518785</v>
+      </c>
+      <c r="N47">
         <v>936116300</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>453</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>1154</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>4697</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3802</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>66777192</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>43</v>
       </c>
-      <c r="T47">
+      <c r="U47">
+        <v>7657</v>
+      </c>
+      <c r="V47">
         <v>253090</v>
       </c>
-      <c r="U47">
-        <v>19467.1</v>
-      </c>
-      <c r="V47">
+      <c r="W47">
+        <v>19467100000</v>
+      </c>
+      <c r="X47">
+        <v>612223</v>
+      </c>
+      <c r="Y47">
         <v>31797.40062036219</v>
       </c>
-      <c r="W47">
-        <v>612223</v>
-      </c>
-      <c r="X47">
+      <c r="Z47">
         <v>375436300</v>
       </c>
-      <c r="Y47">
+      <c r="AA47">
         <v>642</v>
       </c>
-      <c r="Z47">
+      <c r="AB47">
         <v>1044</v>
       </c>
-      <c r="AA47">
+      <c r="AC47">
         <v>5888</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>-955</v>
       </c>
-      <c r="AC47">
+      <c r="AE47">
         <v>93255052</v>
       </c>
-      <c r="AD47">
+      <c r="AF47">
         <v>-156</v>
       </c>
-      <c r="AE47">
+      <c r="AG47">
+        <v>5591</v>
+      </c>
+      <c r="AH47">
         <v>254852</v>
       </c>
-      <c r="AF47">
-        <v>27478.3</v>
-      </c>
-      <c r="AG47">
-        <v>43897.85289794875</v>
-      </c>
-      <c r="AH47">
-        <v>625960</v>
-      </c>
       <c r="AI47">
+        <v>27478300000</v>
+      </c>
+      <c r="AJ47">
+        <v>626366</v>
+      </c>
+      <c r="AK47">
+        <v>43869.399041455</v>
+      </c>
+      <c r="AL47">
         <v>22994000</v>
       </c>
-      <c r="AJ47">
+      <c r="AM47">
         <v>451</v>
       </c>
-      <c r="AK47">
+      <c r="AN47">
         <v>924</v>
       </c>
-      <c r="AL47">
+      <c r="AO47">
         <v>6160</v>
       </c>
-      <c r="AM47">
+      <c r="AP47">
         <v>5500</v>
       </c>
-      <c r="AN47">
+      <c r="AQ47">
         <v>89559843</v>
       </c>
-      <c r="AO47">
+      <c r="AR47">
         <v>-60</v>
       </c>
-      <c r="AP47">
+      <c r="AS47">
+        <v>6912</v>
+      </c>
+      <c r="AT47">
         <v>265785</v>
       </c>
-      <c r="AQ47">
-        <v>31152.4</v>
-      </c>
-      <c r="AR47">
+      <c r="AU47">
+        <v>31152400000</v>
+      </c>
+      <c r="AV47">
+        <v>635912</v>
+      </c>
+      <c r="AW47">
         <v>48988.53929474518</v>
-      </c>
-      <c r="AS47">
-        <v>635912</v>
       </c>
     </row>
     <row r="48">
@@ -6997,115 +7530,127 @@
         <v>4700</v>
       </c>
       <c r="I48">
+        <v>86044</v>
+      </c>
+      <c r="J48">
         <v>2500902</v>
       </c>
-      <c r="J48">
-        <v>197809</v>
-      </c>
       <c r="K48">
-        <v>29676.58346549414</v>
+        <v>197809000000</v>
       </c>
       <c r="L48">
-        <v>6665491</v>
+        <v>6750884</v>
       </c>
       <c r="M48">
+        <v>29301.19966511053</v>
+      </c>
+      <c r="N48">
         <v>11600000</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>1115</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>9369</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>32822</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>23707</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>1642002755</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>10723</v>
       </c>
-      <c r="T48">
+      <c r="U48">
+        <v>145412</v>
+      </c>
+      <c r="V48">
         <v>2932650</v>
       </c>
-      <c r="U48">
-        <v>285663.4</v>
-      </c>
-      <c r="V48">
+      <c r="W48">
+        <v>285663400000</v>
+      </c>
+      <c r="X48">
+        <v>7198362</v>
+      </c>
+      <c r="Y48">
         <v>39684.5004460737</v>
       </c>
-      <c r="W48">
-        <v>7198362</v>
-      </c>
-      <c r="X48">
+      <c r="Z48">
         <v>32819000</v>
       </c>
-      <c r="Y48">
+      <c r="AA48">
         <v>1587</v>
       </c>
-      <c r="Z48">
+      <c r="AB48">
         <v>10824</v>
       </c>
-      <c r="AA48">
+      <c r="AC48">
         <v>45324</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>-53908</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <v>1829674103</v>
       </c>
-      <c r="AD48">
+      <c r="AF48">
         <v>-5841</v>
       </c>
-      <c r="AE48">
+      <c r="AG48">
+        <v>93436</v>
+      </c>
+      <c r="AH48">
         <v>3005016</v>
       </c>
-      <c r="AF48">
-        <v>425490.8</v>
-      </c>
-      <c r="AG48">
-        <v>53023.19101335303</v>
-      </c>
-      <c r="AH48">
-        <v>8024617</v>
-      </c>
       <c r="AI48">
+        <v>425490800000</v>
+      </c>
+      <c r="AJ48">
+        <v>8025105</v>
+      </c>
+      <c r="AK48">
+        <v>53019.96671694638</v>
+      </c>
+      <c r="AL48">
         <v>422578300</v>
       </c>
-      <c r="AJ48">
+      <c r="AM48">
         <v>2057</v>
       </c>
-      <c r="AK48">
+      <c r="AN48">
         <v>9324</v>
       </c>
-      <c r="AL48">
+      <c r="AO48">
         <v>56878</v>
       </c>
-      <c r="AM48">
+      <c r="AP48">
         <v>58314</v>
       </c>
-      <c r="AN48">
+      <c r="AQ48">
         <v>1833456649</v>
       </c>
-      <c r="AO48">
+      <c r="AR48">
         <v>1429</v>
       </c>
-      <c r="AP48">
+      <c r="AS48">
+        <v>97378</v>
+      </c>
+      <c r="AT48">
         <v>3210464</v>
       </c>
-      <c r="AQ48">
-        <v>485540.9</v>
-      </c>
-      <c r="AR48">
+      <c r="AU48">
+        <v>485540900000</v>
+      </c>
+      <c r="AV48">
+        <v>8390494</v>
+      </c>
+      <c r="AW48">
         <v>57867.97535401372</v>
-      </c>
-      <c r="AS48">
-        <v>8390494</v>
       </c>
     </row>
     <row r="49">
@@ -7136,115 +7681,127 @@
         <v>2899</v>
       </c>
       <c r="I49">
+        <v>59791</v>
+      </c>
+      <c r="J49">
         <v>1952837</v>
       </c>
-      <c r="J49">
-        <v>159602</v>
-      </c>
       <c r="K49">
-        <v>28966.07472681758</v>
+        <v>159602000000</v>
       </c>
       <c r="L49">
-        <v>5509963</v>
+        <v>5569753</v>
       </c>
       <c r="M49">
+        <v>28655.1306673743</v>
+      </c>
+      <c r="N49">
         <v>1041256800</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>1969</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>10305</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>23441</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>16647</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>1314500000</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>7276</v>
       </c>
-      <c r="T49">
+      <c r="U49">
+        <v>88203</v>
+      </c>
+      <c r="V49">
         <v>2249797</v>
       </c>
-      <c r="U49">
-        <v>237978.2</v>
-      </c>
-      <c r="V49">
+      <c r="W49">
+        <v>237978200000</v>
+      </c>
+      <c r="X49">
+        <v>5985722</v>
+      </c>
+      <c r="Y49">
         <v>39757.64327177239</v>
       </c>
-      <c r="W49">
-        <v>5985722</v>
-      </c>
-      <c r="X49">
+      <c r="Z49">
         <v>613124900</v>
       </c>
-      <c r="Y49">
+      <c r="AA49">
         <v>5258</v>
       </c>
-      <c r="Z49">
+      <c r="AB49">
         <v>11326</v>
       </c>
-      <c r="AA49">
+      <c r="AC49">
         <v>30551</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>-58532</v>
       </c>
-      <c r="AC49">
+      <c r="AE49">
         <v>1673104000</v>
       </c>
-      <c r="AD49">
+      <c r="AF49">
         <v>219</v>
       </c>
-      <c r="AE49">
+      <c r="AG49">
+        <v>113738</v>
+      </c>
+      <c r="AH49">
         <v>2288672</v>
       </c>
-      <c r="AF49">
-        <v>363544.2</v>
-      </c>
-      <c r="AG49">
-        <v>53902.35237740522</v>
-      </c>
-      <c r="AH49">
-        <v>6744496</v>
-      </c>
       <c r="AI49">
+        <v>363544200000</v>
+      </c>
+      <c r="AJ49">
+        <v>6743680</v>
+      </c>
+      <c r="AK49">
+        <v>53908.87467970011</v>
+      </c>
+      <c r="AL49">
         <v>1210820700</v>
       </c>
-      <c r="AJ49">
+      <c r="AM49">
         <v>6378</v>
       </c>
-      <c r="AK49">
+      <c r="AN49">
         <v>9298</v>
       </c>
-      <c r="AL49">
+      <c r="AO49">
         <v>33309</v>
       </c>
-      <c r="AM49">
+      <c r="AP49">
         <v>80104</v>
       </c>
-      <c r="AN49">
+      <c r="AQ49">
         <v>1580750000</v>
       </c>
-      <c r="AO49">
+      <c r="AR49">
         <v>2509</v>
       </c>
-      <c r="AP49">
+      <c r="AS49">
+        <v>127103</v>
+      </c>
+      <c r="AT49">
         <v>2555527</v>
       </c>
-      <c r="AQ49">
-        <v>467590.6</v>
-      </c>
-      <c r="AR49">
+      <c r="AU49">
+        <v>467590600000</v>
+      </c>
+      <c r="AV49">
+        <v>7181417</v>
+      </c>
+      <c r="AW49">
         <v>65111.18905920656</v>
-      </c>
-      <c r="AS49">
-        <v>7181417</v>
       </c>
     </row>
     <row r="50">
@@ -7275,115 +7832,124 @@
         <v>277</v>
       </c>
       <c r="I50">
+        <v>12511</v>
+      </c>
+      <c r="J50">
         <v>522160</v>
       </c>
-      <c r="J50">
-        <v>37160</v>
-      </c>
       <c r="K50">
-        <v>20428.99796204802</v>
+        <v>37160000000</v>
       </c>
       <c r="L50">
-        <v>1818983</v>
+        <v>1822808</v>
       </c>
       <c r="M50">
+        <v>20386.12953201873</v>
+      </c>
+      <c r="N50">
         <v>83796200</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>148</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>2408</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>8704</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>-5502</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>409438327</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>-444</v>
       </c>
-      <c r="T50">
+      <c r="U50">
+        <v>13965</v>
+      </c>
+      <c r="V50">
         <v>556461</v>
       </c>
-      <c r="U50">
-        <v>44105.1</v>
-      </c>
-      <c r="V50">
+      <c r="W50">
+        <v>44105100000</v>
+      </c>
+      <c r="X50">
+        <v>1801481</v>
+      </c>
+      <c r="Y50">
         <v>24482.68952045567</v>
       </c>
-      <c r="W50">
-        <v>1801481</v>
-      </c>
-      <c r="X50">
+      <c r="Z50">
         <v>121791000</v>
       </c>
-      <c r="Y50">
+      <c r="AA50">
         <v>118</v>
       </c>
-      <c r="Z50">
+      <c r="AB50">
         <v>1937</v>
       </c>
-      <c r="AA50">
+      <c r="AC50">
         <v>12032</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>-11984</v>
       </c>
-      <c r="AC50">
+      <c r="AE50">
         <v>523261053</v>
       </c>
-      <c r="AD50">
+      <c r="AF50">
         <v>-107</v>
       </c>
-      <c r="AE50">
+      <c r="AG50">
+        <v>10498</v>
+      </c>
+      <c r="AH50">
         <v>563535</v>
       </c>
-      <c r="AF50">
-        <v>66160.39999999999</v>
-      </c>
-      <c r="AG50">
-        <v>35685.7408387285</v>
-      </c>
-      <c r="AH50">
-        <v>1853973</v>
-      </c>
       <c r="AI50">
-        <v>0</v>
+        <v>66160399999.99999</v>
       </c>
       <c r="AJ50">
+        <v>1854404</v>
+      </c>
+      <c r="AK50">
+        <v>35677.44676995951</v>
+      </c>
+      <c r="AM50">
         <v>127</v>
       </c>
-      <c r="AK50">
+      <c r="AN50">
         <v>1758</v>
       </c>
-      <c r="AL50">
+      <c r="AO50">
         <v>15997</v>
       </c>
-      <c r="AM50">
+      <c r="AP50">
         <v>-6366</v>
       </c>
-      <c r="AN50">
+      <c r="AQ50">
         <v>509752932</v>
       </c>
-      <c r="AO50">
+      <c r="AR50">
         <v>102</v>
       </c>
-      <c r="AP50">
+      <c r="AS50">
+        <v>10624</v>
+      </c>
+      <c r="AT50">
         <v>567642</v>
       </c>
-      <c r="AQ50">
-        <v>71713.39999999999</v>
-      </c>
-      <c r="AR50">
+      <c r="AU50">
+        <v>71713400000</v>
+      </c>
+      <c r="AV50">
+        <v>1846270</v>
+      </c>
+      <c r="AW50">
         <v>38842.3145043791</v>
-      </c>
-      <c r="AS50">
-        <v>1846270</v>
       </c>
     </row>
     <row r="51">
@@ -7392,9 +7958,6 @@
           <t>Wisconsin</t>
         </is>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
       <c r="C51">
         <v>1320</v>
       </c>
@@ -7414,115 +7977,127 @@
         <v>1592</v>
       </c>
       <c r="I51">
+        <v>46060</v>
+      </c>
+      <c r="J51">
         <v>2193435</v>
       </c>
-      <c r="J51">
-        <v>139160</v>
-      </c>
       <c r="K51">
-        <v>26896.91269211114</v>
+        <v>139160000000</v>
       </c>
       <c r="L51">
-        <v>5173828</v>
+        <v>5229986</v>
       </c>
       <c r="M51">
+        <v>26608.1018190106</v>
+      </c>
+      <c r="N51">
         <v>1000000</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1837</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>7057</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>28493</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>-31321</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>1545796957</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>904</v>
       </c>
-      <c r="T51">
+      <c r="U51">
+        <v>54250</v>
+      </c>
+      <c r="V51">
         <v>2384963</v>
       </c>
-      <c r="U51">
-        <v>188662.8</v>
-      </c>
-      <c r="V51">
+      <c r="W51">
+        <v>188662800000</v>
+      </c>
+      <c r="X51">
+        <v>5406835</v>
+      </c>
+      <c r="Y51">
         <v>34893.38957079327</v>
       </c>
-      <c r="W51">
-        <v>5406835</v>
-      </c>
-      <c r="X51">
+      <c r="Z51">
         <v>3750000</v>
       </c>
-      <c r="Y51">
+      <c r="AA51">
         <v>1814</v>
       </c>
-      <c r="Z51">
+      <c r="AB51">
         <v>6874</v>
       </c>
-      <c r="AA51">
+      <c r="AC51">
         <v>34110</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>-31970</v>
       </c>
-      <c r="AC51">
+      <c r="AE51">
         <v>1860648679</v>
       </c>
-      <c r="AD51">
+      <c r="AF51">
         <v>3404</v>
       </c>
-      <c r="AE51">
+      <c r="AG51">
+        <v>54251</v>
+      </c>
+      <c r="AH51">
         <v>2319413</v>
       </c>
-      <c r="AF51">
-        <v>256159.5</v>
-      </c>
-      <c r="AG51">
-        <v>45010.96195480374</v>
-      </c>
-      <c r="AH51">
-        <v>5691047</v>
-      </c>
       <c r="AI51">
+        <v>256159500000</v>
+      </c>
+      <c r="AJ51">
+        <v>5692038</v>
+      </c>
+      <c r="AK51">
+        <v>45003.12541834752</v>
+      </c>
+      <c r="AL51">
         <v>87851000</v>
       </c>
-      <c r="AJ51">
+      <c r="AM51">
         <v>2039</v>
       </c>
-      <c r="AK51">
+      <c r="AN51">
         <v>5786</v>
       </c>
-      <c r="AL51">
+      <c r="AO51">
         <v>37555</v>
       </c>
-      <c r="AM51">
+      <c r="AP51">
         <v>54066</v>
       </c>
-      <c r="AN51">
+      <c r="AQ51">
         <v>1816864119</v>
       </c>
-      <c r="AO51">
+      <c r="AR51">
         <v>1310</v>
       </c>
-      <c r="AP51">
+      <c r="AS51">
+        <v>56700</v>
+      </c>
+      <c r="AT51">
         <v>2493248</v>
       </c>
-      <c r="AQ51">
-        <v>308304.5</v>
-      </c>
-      <c r="AR51">
+      <c r="AU51">
+        <v>308304500000</v>
+      </c>
+      <c r="AV51">
+        <v>5794536</v>
+      </c>
+      <c r="AW51">
         <v>53206.0720651317</v>
-      </c>
-      <c r="AS51">
-        <v>5794536</v>
       </c>
     </row>
     <row r="52">
@@ -7531,9 +8106,6 @@
           <t>Wyoming</t>
         </is>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
       <c r="C52">
         <v>33</v>
       </c>
@@ -7553,115 +8125,121 @@
         <v>-25</v>
       </c>
       <c r="I52">
+        <v>3444</v>
+      </c>
+      <c r="J52">
         <v>152578</v>
       </c>
-      <c r="J52">
-        <v>16847</v>
-      </c>
       <c r="K52">
-        <v>35091.70251101367</v>
+        <v>16847000000</v>
       </c>
       <c r="L52">
-        <v>480085</v>
+        <v>488167</v>
       </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+        <v>34510.73095887268</v>
+      </c>
+      <c r="O52">
         <v>51</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1038</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>1677</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>3551</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>168980680</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>54</v>
       </c>
-      <c r="T52">
+      <c r="U52">
+        <v>3936</v>
+      </c>
+      <c r="V52">
         <v>178625</v>
       </c>
-      <c r="U52">
-        <v>18741.7</v>
-      </c>
-      <c r="V52">
+      <c r="W52">
+        <v>18741700000</v>
+      </c>
+      <c r="X52">
+        <v>494657</v>
+      </c>
+      <c r="Y52">
         <v>37888.27409700055</v>
       </c>
-      <c r="W52">
-        <v>494657</v>
-      </c>
-      <c r="X52">
+      <c r="Z52">
         <v>10000000</v>
       </c>
-      <c r="Y52">
+      <c r="AA52">
         <v>82</v>
       </c>
-      <c r="Z52">
+      <c r="AB52">
         <v>1227</v>
       </c>
-      <c r="AA52">
+      <c r="AC52">
         <v>1791</v>
       </c>
-      <c r="AB52">
+      <c r="AD52">
         <v>-8677</v>
       </c>
-      <c r="AC52">
+      <c r="AE52">
         <v>341705457</v>
       </c>
-      <c r="AD52">
+      <c r="AF52">
         <v>-151</v>
       </c>
-      <c r="AE52">
+      <c r="AG52">
+        <v>3938</v>
+      </c>
+      <c r="AH52">
         <v>202713</v>
       </c>
-      <c r="AF52">
-        <v>37567.5</v>
-      </c>
-      <c r="AG52">
-        <v>66554.76030188144</v>
-      </c>
-      <c r="AH52">
-        <v>564460</v>
-      </c>
       <c r="AI52">
-        <v>0</v>
+        <v>37567500000</v>
       </c>
       <c r="AJ52">
+        <v>564402</v>
+      </c>
+      <c r="AK52">
+        <v>66561.5997108444</v>
+      </c>
+      <c r="AM52">
         <v>110</v>
       </c>
-      <c r="AK52">
+      <c r="AN52">
         <v>1041</v>
       </c>
-      <c r="AL52">
+      <c r="AO52">
         <v>2026</v>
       </c>
-      <c r="AM52">
+      <c r="AP52">
         <v>1137</v>
       </c>
-      <c r="AN52">
+      <c r="AQ52">
         <v>413249059</v>
       </c>
-      <c r="AO52">
+      <c r="AR52">
         <v>-83</v>
       </c>
-      <c r="AP52">
+      <c r="AS52">
+        <v>4066</v>
+      </c>
+      <c r="AT52">
         <v>220284</v>
       </c>
-      <c r="AQ52">
-        <v>38624.8</v>
-      </c>
-      <c r="AR52">
+      <c r="AU52">
+        <v>38624800000</v>
+      </c>
+      <c r="AV52">
+        <v>583671</v>
+      </c>
+      <c r="AW52">
         <v>66175.63661720387</v>
-      </c>
-      <c r="AS52">
-        <v>583671</v>
       </c>
     </row>
     <row r="53">
@@ -7692,115 +8270,127 @@
         <v>92825</v>
       </c>
       <c r="I53">
+        <v>2885902</v>
+      </c>
+      <c r="J53">
         <v>100035606</v>
       </c>
-      <c r="J53">
-        <v>7631022</v>
-      </c>
       <c r="K53">
-        <v>28771.38451213125</v>
+        <v>7631022000000</v>
       </c>
       <c r="L53">
-        <v>265229572</v>
+        <v>269394284</v>
       </c>
       <c r="M53">
+        <v>28326.59211136046</v>
+      </c>
+      <c r="N53">
         <v>37623998000</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>87610</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>408275</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>1241100</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>228849</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>67528987936</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>149625</v>
       </c>
-      <c r="T53">
+      <c r="U53">
+        <v>3758815</v>
+      </c>
+      <c r="V53">
         <v>113762122</v>
       </c>
-      <c r="U53">
-        <v>10581929</v>
-      </c>
-      <c r="V53">
+      <c r="W53">
+        <v>10581929000000</v>
+      </c>
+      <c r="X53">
+        <v>284968955</v>
+      </c>
+      <c r="Y53">
         <v>37133.6203973517</v>
       </c>
-      <c r="W53">
-        <v>284968955</v>
-      </c>
-      <c r="X53">
+      <c r="Z53">
         <v>21823380100</v>
       </c>
-      <c r="Y53">
+      <c r="AA53">
         <v>107792</v>
       </c>
-      <c r="Z53">
+      <c r="AB53">
         <v>440520</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>1646533</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>-2400279</v>
       </c>
-      <c r="AC53">
+      <c r="AE53">
         <v>89089436095</v>
       </c>
-      <c r="AD53">
+      <c r="AF53">
         <v>-142511</v>
       </c>
-      <c r="AE53">
+      <c r="AG53">
+        <v>3133993</v>
+      </c>
+      <c r="AH53">
         <v>111309955</v>
       </c>
-      <c r="AF53">
-        <v>15048971</v>
-      </c>
-      <c r="AG53">
-        <v>48647.11856878576</v>
-      </c>
-      <c r="AH53">
-        <v>309349689</v>
-      </c>
       <c r="AI53">
+        <v>15048971000000</v>
+      </c>
+      <c r="AJ53">
+        <v>309378227</v>
+      </c>
+      <c r="AK53">
+        <v>48642.6312088213</v>
+      </c>
+      <c r="AL53">
         <v>58811188300</v>
       </c>
-      <c r="AJ53">
+      <c r="AM53">
         <v>140969</v>
       </c>
-      <c r="AK53">
+      <c r="AN53">
         <v>383683</v>
       </c>
-      <c r="AL53">
+      <c r="AO53">
         <v>1891525</v>
       </c>
-      <c r="AM53">
+      <c r="AP53">
         <v>3103607</v>
       </c>
-      <c r="AN53">
+      <c r="AQ53">
         <v>91167310690</v>
       </c>
-      <c r="AO53">
+      <c r="AR53">
         <v>43044</v>
       </c>
-      <c r="AP53">
+      <c r="AS53">
+        <v>3386512</v>
+      </c>
+      <c r="AT53">
         <v>123230846</v>
       </c>
-      <c r="AQ53">
-        <v>18295019</v>
-      </c>
-      <c r="AR53">
+      <c r="AU53">
+        <v>18295019000000</v>
+      </c>
+      <c r="AV53">
+        <v>321815121</v>
+      </c>
+      <c r="AW53">
         <v>56849.46979231594</v>
-      </c>
-      <c r="AS53">
-        <v>321815121</v>
       </c>
     </row>
   </sheetData>
